--- a/regression_summaries.xlsx
+++ b/regression_summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\shinycrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585D6E0F-D5A4-4652-834B-2B6B1907D445}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87403031-3B36-46B3-8C90-71C6A75826D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="270" windowWidth="19440" windowHeight="15000" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
+    <workbookView xWindow="-19170" yWindow="420" windowWidth="18900" windowHeight="14730" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>Independent</t>
   </si>
@@ -65,9 +65,6 @@
     <t>B90_SubAdultCPUE</t>
   </si>
   <si>
-    <t>Lag</t>
-  </si>
-  <si>
     <t>coef2</t>
   </si>
   <si>
@@ -81,6 +78,15 @@
   </si>
   <si>
     <t>B90_CPUE</t>
+  </si>
+  <si>
+    <t>IndependentGroup</t>
+  </si>
+  <si>
+    <t>Abundance</t>
+  </si>
+  <si>
+    <t>LagLead</t>
   </si>
 </sst>
 </file>
@@ -457,20 +463,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722DA1F2-E4C9-40C0-B65E-983E407382A3}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -478,335 +485,407 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.67971999999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.46873999999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.6E-6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.47020000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.45557999999999998</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>32.83</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.3569</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.30130000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4.7210000000000004E-3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.20130000000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.17910000000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9.0739999999999998</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.7016</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.21859999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4.7649999999999998E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.1074</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8.1939999999999999E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4.2130000000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1.764</v>
+      </c>
+      <c r="F5">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G5">
+        <v>4.7620000000000003E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.1019</v>
+      </c>
+      <c r="I5">
+        <v>7.7619999999999995E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1.764</v>
-      </c>
-      <c r="E5">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F5">
-        <v>4.7620000000000003E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.1019</v>
-      </c>
-      <c r="H5">
-        <v>7.7619999999999995E-2</v>
-      </c>
-      <c r="I5">
-        <v>4.1980000000000004</v>
-      </c>
-      <c r="J5">
+      <c r="E6">
+        <v>1.8703000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="G6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.3720000000000003E-2</v>
+      </c>
+      <c r="I6">
+        <v>5.8959999999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="K6">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>1.8703000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="F6">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G6">
-        <v>8.3720000000000003E-2</v>
-      </c>
-      <c r="H6">
-        <v>5.8959999999999999E-2</v>
-      </c>
-      <c r="I6">
-        <v>3.3809999999999998</v>
-      </c>
-      <c r="J6">
+      <c r="E7" s="1">
+        <v>-3.2829999999999999E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.73454799999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.4770000000000003E-14</v>
+      </c>
+      <c r="H7">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.78129999999999999</v>
+      </c>
+      <c r="J7">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="K7">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.5421</v>
+      </c>
+      <c r="F8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G8">
+        <v>3.0849999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.123</v>
+      </c>
+      <c r="I8">
+        <v>9.8659999999999998E-2</v>
+      </c>
+      <c r="J8">
+        <v>5.05</v>
+      </c>
+      <c r="K8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-3.2829999999999999E-3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.73454799999999998</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.4770000000000003E-14</v>
-      </c>
-      <c r="G7">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="H7">
-        <v>0.78129999999999999</v>
-      </c>
-      <c r="I7">
-        <v>136.69999999999999</v>
-      </c>
-      <c r="J7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1.5421</v>
-      </c>
-      <c r="E8">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="F8">
-        <v>3.0849999999999999E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.123</v>
-      </c>
-      <c r="H8">
-        <v>9.8659999999999998E-2</v>
-      </c>
-      <c r="I8">
-        <v>5.05</v>
-      </c>
-      <c r="J8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/regression_summaries.xlsx
+++ b/regression_summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\shinycrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87403031-3B36-46B3-8C90-71C6A75826D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E273F-A917-4B4A-9768-E94C0A06D426}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19170" yWindow="420" windowWidth="18900" windowHeight="14730" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
+    <workbookView xWindow="-19320" yWindow="270" windowWidth="19440" windowHeight="15000" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="79">
   <si>
     <t>Independent</t>
   </si>
@@ -88,24 +88,201 @@
   <si>
     <t>LagLead</t>
   </si>
+  <si>
+    <t>P88_CPUE</t>
+  </si>
+  <si>
+    <t>WandoLandings</t>
+  </si>
+  <si>
+    <t>ChsHarborLandingsCPUE</t>
+  </si>
+  <si>
+    <t>WandoLandingsCPUE</t>
+  </si>
+  <si>
+    <t>SumLandingsCPUE</t>
+  </si>
+  <si>
+    <t>MeanLandingsCPUE</t>
+  </si>
+  <si>
+    <t>B90_MatureFemaleCPUE</t>
+  </si>
+  <si>
+    <t>B90_ImmatureFemaleCPUE</t>
+  </si>
+  <si>
+    <t>T38_SubAdultCPUE</t>
+  </si>
+  <si>
+    <t>T38_CPUE</t>
+  </si>
+  <si>
+    <t>CooperLandings</t>
+  </si>
+  <si>
+    <t>ChsHarborLandings</t>
+  </si>
+  <si>
+    <t>CooperLandingsCPUE</t>
+  </si>
+  <si>
+    <t>T38_AdultCPUE</t>
+  </si>
+  <si>
+    <t>T06_CPUE</t>
+  </si>
+  <si>
+    <t>SumLandings</t>
+  </si>
+  <si>
+    <t>MeanLandings</t>
+  </si>
+  <si>
+    <t>0.8.865</t>
+  </si>
+  <si>
+    <t>T38_ImmatureFemaleCPUE</t>
+  </si>
+  <si>
+    <t>MeanCooperCSIRaw</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>MeanAshleyCSIRaw</t>
+  </si>
+  <si>
+    <t>AshleyCSI_April_12mo</t>
+  </si>
+  <si>
+    <t>AshleyCSI_April24mo</t>
+  </si>
+  <si>
+    <t>AshleyCSI_WaterYear</t>
+  </si>
+  <si>
+    <t>AshleyCSI_Winter</t>
+  </si>
+  <si>
+    <t>CooperCSI_April_12mo</t>
+  </si>
+  <si>
+    <t>CooperCSI_April24mo</t>
+  </si>
+  <si>
+    <t>CooperCSI_WaterYear</t>
+  </si>
+  <si>
+    <t>CooperCSI_Winter</t>
+  </si>
+  <si>
+    <t>WandoCSI_April_12mo</t>
+  </si>
+  <si>
+    <t>WandoCSI_April24mo</t>
+  </si>
+  <si>
+    <t>WandoCSI_WaterYear</t>
+  </si>
+  <si>
+    <t>B90_SpotTemp</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>T06_SpotTemp</t>
+  </si>
+  <si>
+    <t>ChasCity_WinterPrecip</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>ChasCity_SpringPrecip</t>
+  </si>
+  <si>
+    <t>ChasCity_SummerPrecip</t>
+  </si>
+  <si>
+    <t>ChasCity_FallPrecip</t>
+  </si>
+  <si>
+    <t>ChasCity_AnnualPrecip</t>
+  </si>
+  <si>
+    <t>ChasCity_MeanAnnualMonthlyPrecip</t>
+  </si>
+  <si>
+    <t>WandoCSI_Winter</t>
+  </si>
+  <si>
+    <t>MeanWandoCSIRaw</t>
+  </si>
+  <si>
+    <t>B90_SpotSal</t>
+  </si>
+  <si>
+    <t>CustomsHouse_MeanAnnualTemp_CalendarYr</t>
+  </si>
+  <si>
+    <t>P88_SpotTemp</t>
+  </si>
+  <si>
+    <t>ENSO_DJ</t>
+  </si>
+  <si>
+    <t>ENSO_JF</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>ENSO_AS</t>
+  </si>
+  <si>
+    <t>ENSO_SO</t>
+  </si>
+  <si>
+    <t>ENSO_ON</t>
+  </si>
+  <si>
+    <t>ENSO_ND</t>
+  </si>
+  <si>
+    <t>ONI_ASO</t>
+  </si>
+  <si>
+    <t>P88_SpotSal</t>
+  </si>
+  <si>
+    <t>T06_SpotSal</t>
+  </si>
+  <si>
+    <t>MeanAnnualWandoCSI</t>
+  </si>
+  <si>
+    <t>T38_SpotTemp</t>
+  </si>
+  <si>
+    <t>ChasCity_MeanAnnualDailyPrecip</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -124,31 +301,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,18 +621,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722DA1F2-E4C9-40C0-B65E-983E407382A3}">
-  <dimension ref="A1:K24"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:K238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="11" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -652,7 +815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -687,7 +850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -700,13 +863,13 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>-3.2829999999999999E-3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>0.73454799999999998</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>5.4770000000000003E-14</v>
       </c>
       <c r="H7">
@@ -767,125 +930,8044 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.33882000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="G9">
+        <v>6.7819999999999995E-8</v>
+      </c>
+      <c r="H9">
+        <v>0.5494</v>
+      </c>
+      <c r="I9">
+        <v>0.53720000000000001</v>
+      </c>
+      <c r="J9">
+        <v>45.11</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="s">
         <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1.5117700000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.1067</v>
+      </c>
+      <c r="G10">
+        <v>2.9090000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.1255</v>
+      </c>
+      <c r="I10">
+        <v>0.1012</v>
+      </c>
+      <c r="J10">
+        <v>5.1669999999999998</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" t="s">
         <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-0.29670999999999997</v>
+      </c>
+      <c r="F11">
+        <v>1.02623</v>
+      </c>
+      <c r="G11">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2979</v>
+      </c>
+      <c r="J11">
+        <v>7.3639999999999999</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" t="s">
         <v>16</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.13417999999999999</v>
+      </c>
+      <c r="F12">
+        <v>4.8120000000000003E-2</v>
+      </c>
+      <c r="G12">
+        <v>4.4010000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.2767</v>
+      </c>
+      <c r="I12">
+        <v>0.221</v>
+      </c>
+      <c r="J12">
+        <v>4.9729999999999999</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" t="s">
         <v>16</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="F13">
+        <v>4.2849999999999999E-2</v>
+      </c>
+      <c r="G13">
+        <v>8.4409999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.2278</v>
+      </c>
+      <c r="I13">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="J13">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" t="s">
         <v>16</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F14">
+        <v>-1.181E-4</v>
+      </c>
+      <c r="G14">
+        <v>8.7270000000000004E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="J14">
+        <v>7.67</v>
+      </c>
+      <c r="K14">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" t="s">
         <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4.665</v>
+      </c>
+      <c r="F15">
+        <v>-1.4440000000000001E-4</v>
+      </c>
+      <c r="G15">
+        <v>8.0849999999999997E-4</v>
+      </c>
+      <c r="H15">
+        <v>0.2646</v>
+      </c>
+      <c r="I15">
+        <v>0.2447</v>
+      </c>
+      <c r="J15">
+        <v>13.31</v>
+      </c>
+      <c r="K15">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>-5.24</v>
+      </c>
+      <c r="F16">
+        <v>2.8660000000000001</v>
+      </c>
+      <c r="G16">
+        <v>1.453E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="J16">
+        <v>7.9379999999999997</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>-3.3359999999999999</v>
+      </c>
+      <c r="F17">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="G17">
+        <v>9.7390000000000004E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.2122</v>
+      </c>
+      <c r="I17">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="J17">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-7.194</v>
+      </c>
+      <c r="F18">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="G18">
+        <v>9.6010000000000002E-3</v>
+      </c>
+      <c r="H18">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="J18">
+        <v>9.202</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>-9.2126999999999999</v>
+      </c>
+      <c r="F19">
+        <v>3.8574000000000002</v>
+      </c>
+      <c r="G19">
+        <v>7.7079999999999998E-4</v>
+      </c>
+      <c r="H19">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="I19">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="J19">
+        <v>19.95</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>-6.0090000000000003</v>
+      </c>
+      <c r="F20">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="G20">
+        <v>3.1370000000000002E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2974</v>
+      </c>
+      <c r="J20">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-9.9047000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.1114999999999999</v>
+      </c>
+      <c r="G21">
+        <v>2.8330000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="J21">
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="K21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>-8.2454999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="G22">
+        <v>7.2010000000000005E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.182</v>
+      </c>
+      <c r="J22">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-9.9049999999999994</v>
+      </c>
+      <c r="F23">
+        <v>4.4459999999999997</v>
+      </c>
+      <c r="G23">
+        <v>2.8330000000000001E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="I23">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="J23">
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="K23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
       <c r="C24" t="s">
         <v>16</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-8.2449999999999992</v>
+      </c>
+      <c r="F24">
+        <v>3.7949999999999999</v>
+      </c>
+      <c r="G24">
+        <v>7.2010000000000005E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.182</v>
+      </c>
+      <c r="J24">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="F25">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G25">
+        <v>1.4580000000000001E-6</v>
+      </c>
+      <c r="H25">
+        <v>0.47020000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.45579999999999998</v>
+      </c>
+      <c r="J25">
+        <v>32.83</v>
+      </c>
+      <c r="K25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1.7998000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="G26">
+        <v>1.5150000000000001E-5</v>
+      </c>
+      <c r="H26">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I26">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="J26">
+        <v>24.77</v>
+      </c>
+      <c r="K26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1.9762999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="G27">
+        <v>2.5130000000000002E-5</v>
+      </c>
+      <c r="H27">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="J27">
+        <v>23.16</v>
+      </c>
+      <c r="K27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.5393</v>
+      </c>
+      <c r="F28">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="G28">
+        <v>1.3109999999999999E-9</v>
+      </c>
+      <c r="H28">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="I28">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="J28">
+        <v>64.27</v>
+      </c>
+      <c r="K28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>-9.7769999999999996E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.41692000000000001</v>
+      </c>
+      <c r="G29">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H29">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="I29">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="J29">
+        <v>231.8</v>
+      </c>
+      <c r="K29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2.2381000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.5696</v>
+      </c>
+      <c r="G30">
+        <v>2.7529999999999999E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.1313</v>
+      </c>
+      <c r="I30">
+        <v>0.1065</v>
+      </c>
+      <c r="J30">
+        <v>5.29</v>
+      </c>
+      <c r="K30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2.4335</v>
+      </c>
+      <c r="F31">
+        <v>0.2591</v>
+      </c>
+      <c r="G31">
+        <v>6.9360000000000005E-2</v>
+      </c>
+      <c r="H31">
+        <v>9.1149999999999995E-2</v>
+      </c>
+      <c r="I31">
+        <v>6.5180000000000002E-2</v>
+      </c>
+      <c r="J31">
+        <v>3.51</v>
+      </c>
+      <c r="K31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>-1.21455</v>
+      </c>
+      <c r="F32">
+        <v>9.9040000000000003E-2</v>
+      </c>
+      <c r="G32">
+        <v>1.247E-4</v>
+      </c>
+      <c r="H32">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="I32">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="J32">
+        <v>27.48</v>
+      </c>
+      <c r="K32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>7.5791915000000003</v>
+      </c>
+      <c r="F33">
+        <v>-2.0919999999999999E-4</v>
+      </c>
+      <c r="G33">
+        <v>2.7830000000000001E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="I33">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="J33">
+        <v>6.13</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="F34">
+        <v>-1.5650000000000001E-4</v>
+      </c>
+      <c r="G34">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="J34">
+        <v>8.2119999999999997</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="F35">
+        <v>3.0540000000000002E-5</v>
+      </c>
+      <c r="G35">
+        <v>4.8439999999999997E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.1012</v>
+      </c>
+      <c r="I35">
+        <v>7.689E-2</v>
+      </c>
+      <c r="J35">
+        <v>4.165</v>
+      </c>
+      <c r="K35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>6.7619999999999996</v>
+      </c>
+      <c r="F36">
+        <v>-1.9550000000000001E-4</v>
+      </c>
+      <c r="G36">
+        <v>2.189E-3</v>
+      </c>
+      <c r="H36">
+        <v>0.2266</v>
+      </c>
+      <c r="I36">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="J36">
+        <v>10.84</v>
+      </c>
+      <c r="K36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>10.247999999999999</v>
+      </c>
+      <c r="F37">
+        <v>-2.581</v>
+      </c>
+      <c r="G37">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="I37">
+        <v>0.192</v>
+      </c>
+      <c r="J37">
+        <v>3.851</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>-10.847</v>
+      </c>
+      <c r="F38">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="G38">
+        <v>1.9840000000000001E-3</v>
+      </c>
+      <c r="H38">
+        <v>0.53359999999999996</v>
+      </c>
+      <c r="I38">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="J38">
+        <v>14.87</v>
+      </c>
+      <c r="K38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>-6.5598000000000001</v>
+      </c>
+      <c r="F39">
+        <v>3.165</v>
+      </c>
+      <c r="G39">
+        <v>2.444E-3</v>
+      </c>
+      <c r="H39">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="I39">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J39">
+        <v>14.59</v>
+      </c>
+      <c r="K39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>-9.5033999999999992</v>
+      </c>
+      <c r="F40">
+        <v>1.1705000000000001</v>
+      </c>
+      <c r="G40">
+        <v>9.1230000000000006E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="I40">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="J40">
+        <v>3.327</v>
+      </c>
+      <c r="K40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>-9.5030000000000001</v>
+      </c>
+      <c r="F41">
+        <v>4.4682000000000004</v>
+      </c>
+      <c r="G41">
+        <v>9.1230000000000006E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="I41">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="J41">
+        <v>3.327</v>
+      </c>
+      <c r="K41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1.8514999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G42">
+        <v>4.7620000000000003E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.1019</v>
+      </c>
+      <c r="I42">
+        <v>7.7619999999999995E-2</v>
+      </c>
+      <c r="J42">
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="K42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.6673</v>
+      </c>
+      <c r="F43">
+        <v>0.6089</v>
+      </c>
+      <c r="G43">
+        <v>1.5150000000000001E-5</v>
+      </c>
+      <c r="H43">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I43">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="J43">
+        <v>24.77</v>
+      </c>
+      <c r="K43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.26584000000000002</v>
+      </c>
+      <c r="F44">
+        <v>1.1465700000000001</v>
+      </c>
+      <c r="G44">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H44">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="I44">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="J44">
+        <v>925.7</v>
+      </c>
+      <c r="K44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="F45">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="G45">
+        <v>2.007E-4</v>
+      </c>
+      <c r="H45">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="I45">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="J45">
+        <v>17.03</v>
+      </c>
+      <c r="K45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>-0.32319999999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.35502</v>
+      </c>
+      <c r="G46">
+        <v>1.35</v>
+      </c>
+      <c r="H46">
+        <v>0.6764</v>
+      </c>
+      <c r="I46">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="J46">
+        <v>77.33</v>
+      </c>
+      <c r="K46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1.4642999999999999</v>
+      </c>
+      <c r="F47">
+        <v>1.4723999999999999</v>
+      </c>
+      <c r="G47">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.1188</v>
+      </c>
+      <c r="I47">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="J47">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="K47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>4.0441799999999999</v>
+      </c>
+      <c r="F48">
+        <v>-3.5680000000000003E-2</v>
+      </c>
+      <c r="G48">
+        <v>6.615E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="I48">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="J48">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="K48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>-0.4123</v>
+      </c>
+      <c r="F49">
+        <v>1.6252</v>
+      </c>
+      <c r="G49">
+        <v>2.4379999999999999E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="I49">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="J49">
+        <v>6.7969999999999997</v>
+      </c>
+      <c r="K49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="F50">
+        <v>2.7820000000000001E-5</v>
+      </c>
+      <c r="G50">
+        <v>6.2210000000000001E-2</v>
+      </c>
+      <c r="H50">
+        <v>9.0859999999999996E-2</v>
+      </c>
+      <c r="I50">
+        <v>6.6290000000000002E-2</v>
+      </c>
+      <c r="J50">
+        <v>3.698</v>
+      </c>
+      <c r="K50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.3448</v>
+      </c>
+      <c r="F51">
+        <v>4.0229999999999999E-5</v>
+      </c>
+      <c r="G51">
+        <v>3.6790000000000003E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="I51">
+        <v>8.8590000000000002E-2</v>
+      </c>
+      <c r="J51">
+        <v>4.694</v>
+      </c>
+      <c r="K51">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1.417</v>
+      </c>
+      <c r="F52">
+        <v>5.7479999999999999E-5</v>
+      </c>
+      <c r="G52">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="H52">
+        <v>9.8339999999999997E-2</v>
+      </c>
+      <c r="I52">
+        <v>7.3969999999999994E-2</v>
+      </c>
+      <c r="J52">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="K52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1.4887999999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G53">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H53">
+        <v>8.3720000000000003E-2</v>
+      </c>
+      <c r="I53">
+        <v>5.8959999999999999E-2</v>
+      </c>
+      <c r="J53">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="K53">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.4279</v>
+      </c>
+      <c r="F54">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="G54">
+        <v>2.5130000000000002E-5</v>
+      </c>
+      <c r="H54">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I54">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="J54">
+        <v>23.16</v>
+      </c>
+      <c r="K54">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>-0.13320000000000001</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H55">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="J55">
+        <v>925.7</v>
+      </c>
+      <c r="K55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="F56">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="G56">
+        <v>2.6370000000000001E-4</v>
+      </c>
+      <c r="H56">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="I56">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="J56">
+        <v>16.27</v>
+      </c>
+      <c r="K56">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>-0.37725999999999998</v>
+      </c>
+      <c r="F57">
+        <v>0.29481000000000002</v>
+      </c>
+      <c r="G57">
+        <v>1.124E-9</v>
+      </c>
+      <c r="H57">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="I57">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="J57">
+        <v>65.11</v>
+      </c>
+      <c r="K57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1.2466999999999999</v>
+      </c>
+      <c r="F58">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G58">
+        <v>6.9029999999999994E-2</v>
+      </c>
+      <c r="H58">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="I58">
+        <v>6.3589999999999994E-2</v>
+      </c>
+      <c r="J58">
+        <v>3.5129999999999999</v>
+      </c>
+      <c r="K58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>3.1734300000000002</v>
+      </c>
+      <c r="F59">
+        <v>-3.066E-2</v>
+      </c>
+      <c r="G59">
+        <v>4.7849999999999997E-2</v>
+      </c>
+      <c r="H59">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="I59">
+        <v>0.2122</v>
+      </c>
+      <c r="J59">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="K59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>-0.46500000000000002</v>
+      </c>
+      <c r="F60">
+        <v>1.3169</v>
+      </c>
+      <c r="G60">
+        <v>2.7810000000000001E-2</v>
+      </c>
+      <c r="H60">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="I60">
+        <v>0.311</v>
+      </c>
+      <c r="J60">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="K60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1.383</v>
+      </c>
+      <c r="F61">
+        <v>2.5360000000000001E-5</v>
+      </c>
+      <c r="G61">
+        <v>4.6149999999999997E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.1032</v>
+      </c>
+      <c r="I61">
+        <v>7.8950000000000006E-2</v>
+      </c>
+      <c r="J61">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="K61">
+        <v>4.6149999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1.46</v>
+      </c>
+      <c r="F62">
+        <v>2.2880000000000001E-5</v>
+      </c>
+      <c r="G62">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="H62">
+        <v>8.1689999999999999E-2</v>
+      </c>
+      <c r="I62">
+        <v>5.6869999999999997E-2</v>
+      </c>
+      <c r="J62">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="K62">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>5.2159999999999998E-2</v>
+      </c>
+      <c r="F63">
+        <v>3.5339999999999997E-5</v>
+      </c>
+      <c r="G63">
+        <v>0.1188</v>
+      </c>
+      <c r="H63">
+        <v>9.4990000000000005E-2</v>
+      </c>
+      <c r="I63">
+        <v>0.1188</v>
+      </c>
+      <c r="J63">
+        <v>9.4990000000000005E-2</v>
+      </c>
+      <c r="K63">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="F64">
+        <v>5.1950000000000002E-5</v>
+      </c>
+      <c r="G64">
+        <v>3.9350000000000003E-2</v>
+      </c>
+      <c r="H64">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="I64">
+        <v>8.5730000000000001E-2</v>
+      </c>
+      <c r="J64">
+        <v>4.5629999999999997</v>
+      </c>
+      <c r="K64">
+        <v>3.9350000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>7.1307999999999998</v>
+      </c>
+      <c r="F65">
+        <v>-1.7869999999999999</v>
+      </c>
+      <c r="G65">
+        <v>5.6469999999999999E-2</v>
+      </c>
+      <c r="H65">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="I65">
+        <v>0.22789999999999999</v>
+      </c>
+      <c r="J65">
+        <v>4.5410000000000004</v>
+      </c>
+      <c r="K65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.70965999999999996</v>
+      </c>
+      <c r="F66">
+        <v>1.07142</v>
+      </c>
+      <c r="G66">
+        <v>5.4770000000000003E-14</v>
+      </c>
+      <c r="H66">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="I66">
+        <v>0.78129999999999999</v>
+      </c>
+      <c r="J66">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="K66">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>2.3946000000000001</v>
+      </c>
+      <c r="F67">
+        <v>0.40810000000000002</v>
+      </c>
+      <c r="G67">
+        <v>3.3660000000000002E-2</v>
+      </c>
+      <c r="H67">
+        <v>0.1193</v>
+      </c>
+      <c r="I67">
+        <v>9.486E-2</v>
+      </c>
+      <c r="J67">
+        <v>4.8780000000000001</v>
+      </c>
+      <c r="K67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0.85655999999999999</v>
+      </c>
+      <c r="F68">
+        <v>0.65773000000000004</v>
+      </c>
+      <c r="G68">
+        <v>1.3109999999999999E-9</v>
+      </c>
+      <c r="H68">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="I68">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="J68">
+        <v>64.27</v>
+      </c>
+      <c r="K68">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>2.2372000000000001</v>
+      </c>
+      <c r="F69">
+        <v>0.30659999999999998</v>
+      </c>
+      <c r="G69">
+        <v>1.8890000000000001E-2</v>
+      </c>
+      <c r="H69">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="I69">
+        <v>0.12</v>
+      </c>
+      <c r="J69">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="K69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2.4674999999999998</v>
+      </c>
+      <c r="F70">
+        <v>0.2545</v>
+      </c>
+      <c r="G70">
+        <v>5.663E-2</v>
+      </c>
+      <c r="H70">
+        <v>9.9940000000000001E-2</v>
+      </c>
+      <c r="I70">
+        <v>7.4230000000000004E-2</v>
+      </c>
+      <c r="J70">
+        <v>3.8860000000000001</v>
+      </c>
+      <c r="K70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1.8965000000000001</v>
+      </c>
+      <c r="F71">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="G71">
+        <v>2.007E-4</v>
+      </c>
+      <c r="H71">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="I71">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="J71">
+        <v>17.03</v>
+      </c>
+      <c r="K71">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0.36548000000000003</v>
+      </c>
+      <c r="F72">
+        <v>0.32061000000000001</v>
+      </c>
+      <c r="G72">
+        <v>1.253E-12</v>
+      </c>
+      <c r="H72">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="I72">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="J72">
+        <v>109.9</v>
+      </c>
+      <c r="K72">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>2.32551</v>
+      </c>
+      <c r="F73">
+        <v>0.11615</v>
+      </c>
+      <c r="G73">
+        <v>0.05</v>
+      </c>
+      <c r="H73">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="I73">
+        <v>7.7609999999999998E-2</v>
+      </c>
+      <c r="J73">
+        <v>4.1130000000000004</v>
+      </c>
+      <c r="K73">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2.0110999999999999</v>
+      </c>
+      <c r="F74">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="G74">
+        <v>1.806E-2</v>
+      </c>
+      <c r="H74">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="I74">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="J74">
+        <v>6.1550000000000002</v>
+      </c>
+      <c r="K74">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2.1284000000000001</v>
+      </c>
+      <c r="F75">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="G75">
+        <v>4.1959999999999997E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.113</v>
+      </c>
+      <c r="I75">
+        <v>8.763E-2</v>
+      </c>
+      <c r="J75">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="K75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>2.3534999999999999</v>
+      </c>
+      <c r="F76">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="G76">
+        <v>9.4079999999999997E-2</v>
+      </c>
+      <c r="H76">
+        <v>7.5910000000000005E-2</v>
+      </c>
+      <c r="I76">
+        <v>5.024E-2</v>
+      </c>
+      <c r="J76">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="K76">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2.2764000000000002</v>
+      </c>
+      <c r="F77">
+        <v>0.59560000000000002</v>
+      </c>
+      <c r="G77">
+        <v>6.3009999999999997E-2</v>
+      </c>
+      <c r="H77">
+        <v>9.5310000000000006E-2</v>
+      </c>
+      <c r="I77">
+        <v>6.9459999999999994E-2</v>
+      </c>
+      <c r="J77">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="K77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="F78">
+        <v>5.2650000000000002E-2</v>
+      </c>
+      <c r="G78">
+        <v>2.7279999999999999E-2</v>
+      </c>
+      <c r="H78">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="I78">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="J78">
+        <v>6.1820000000000004</v>
+      </c>
+      <c r="K78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>5.6040000000000001</v>
+      </c>
+      <c r="F79">
+        <v>-1.4630000000000001E-4</v>
+      </c>
+      <c r="G79">
+        <v>6.7960000000000007E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="I79">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="J79">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="K79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="F80">
+        <v>3.3250000000000002E-5</v>
+      </c>
+      <c r="G80">
+        <v>7.8530000000000006E-3</v>
+      </c>
+      <c r="H80">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I80">
+        <v>0.1537</v>
+      </c>
+      <c r="J80">
+        <v>7.9009999999999998</v>
+      </c>
+      <c r="K80">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="F81">
+        <v>2.336E-5</v>
+      </c>
+      <c r="G81">
+        <v>7.2650000000000006E-2</v>
+      </c>
+      <c r="H81">
+        <v>8.448E-2</v>
+      </c>
+      <c r="I81">
+        <v>5.9729999999999998E-2</v>
+      </c>
+      <c r="J81">
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="K81">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="F82">
+        <v>2.6230000000000001E-5</v>
+      </c>
+      <c r="G82">
+        <v>4.5629999999999997E-2</v>
+      </c>
+      <c r="H82">
+        <v>0.1037</v>
+      </c>
+      <c r="I82">
+        <v>7.9430000000000001E-2</v>
+      </c>
+      <c r="J82">
+        <v>4.2789999999999999</v>
+      </c>
+      <c r="K82">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>5.6280000000000001</v>
+      </c>
+      <c r="F83">
+        <v>-1.495E-4</v>
+      </c>
+      <c r="G83">
+        <v>4.9399999999999999E-3</v>
+      </c>
+      <c r="H83">
+        <v>0.1946</v>
+      </c>
+      <c r="I83">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="J83">
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="K83">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="F84">
+        <v>3.1010000000000003E-5</v>
+      </c>
+      <c r="G84">
+        <v>6.2440000000000002E-2</v>
+      </c>
+      <c r="H84">
+        <v>9.0709999999999999E-2</v>
+      </c>
+      <c r="I84">
+        <v>6.6129999999999994E-2</v>
+      </c>
+      <c r="J84">
+        <v>3.6909999999999998</v>
+      </c>
+      <c r="K84">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1.706</v>
+      </c>
+      <c r="F85">
+        <v>6.0630000000000001E-5</v>
+      </c>
+      <c r="G85">
+        <v>1.546E-2</v>
+      </c>
+      <c r="H85">
+        <v>0.1484</v>
+      </c>
+      <c r="I85">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="J85">
+        <v>6.4459999999999997</v>
+      </c>
+      <c r="K85">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>-5.9123000000000001</v>
+      </c>
+      <c r="F86">
+        <v>3.2782</v>
+      </c>
+      <c r="G86">
+        <v>4.0530000000000002E-3</v>
+      </c>
+      <c r="H86">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="I86">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="J86">
+        <v>12.12</v>
+      </c>
+      <c r="K86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>-6.6360000000000001</v>
+      </c>
+      <c r="F87">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="G87">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="H87">
+        <v>0.3911</v>
+      </c>
+      <c r="I87">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="J87">
+        <v>8.35</v>
+      </c>
+      <c r="K87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>-9.2108000000000008</v>
+      </c>
+      <c r="F88">
+        <v>4.0387000000000004</v>
+      </c>
+      <c r="G88">
+        <v>6.8219999999999999E-4</v>
+      </c>
+      <c r="H88">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="I88">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J88">
+        <v>20.58</v>
+      </c>
+      <c r="K88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>-4.5359999999999996</v>
+      </c>
+      <c r="F89">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="G89">
+        <v>6.8959999999999994E-2</v>
+      </c>
+      <c r="H89">
+        <v>0.2697</v>
+      </c>
+      <c r="I89">
+        <v>0.20330000000000001</v>
+      </c>
+      <c r="J89">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="K89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>-11.9476</v>
+      </c>
+      <c r="F90">
+        <v>1.3349</v>
+      </c>
+      <c r="G90">
+        <v>6.398E-3</v>
+      </c>
+      <c r="H90">
+        <v>0.44740000000000002</v>
+      </c>
+      <c r="I90">
+        <v>0.40489999999999998</v>
+      </c>
+      <c r="J90">
+        <v>10.53</v>
+      </c>
+      <c r="K90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>-11.948</v>
+      </c>
+      <c r="F91">
+        <v>5.34</v>
+      </c>
+      <c r="G91">
+        <v>6.398E-3</v>
+      </c>
+      <c r="H91">
+        <v>0.44740000000000002</v>
+      </c>
+      <c r="I91">
+        <v>0.40489999999999998</v>
+      </c>
+      <c r="J91">
+        <v>10.53</v>
+      </c>
+      <c r="K91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>3.3277999999999999</v>
+      </c>
+      <c r="F92">
+        <v>2.415</v>
+      </c>
+      <c r="G92">
+        <v>6.7819999999999995E-8</v>
+      </c>
+      <c r="H92">
+        <v>0.5494</v>
+      </c>
+      <c r="I92">
+        <v>0.53720000000000001</v>
+      </c>
+      <c r="J92">
+        <v>45.11</v>
+      </c>
+      <c r="K92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1.4689000000000001</v>
+      </c>
+      <c r="F93">
+        <v>2.0682999999999998</v>
+      </c>
+      <c r="G93">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H93">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="I93">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="J93">
+        <v>231.8</v>
+      </c>
+      <c r="K93">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>3.5933999999999999</v>
+      </c>
+      <c r="F94">
+        <v>1.9052</v>
+      </c>
+      <c r="G94">
+        <v>1.35E-10</v>
+      </c>
+      <c r="H94">
+        <v>0.6764</v>
+      </c>
+      <c r="I94">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="J94">
+        <v>77.33</v>
+      </c>
+      <c r="K94">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>4.1501999999999999</v>
+      </c>
+      <c r="F95">
+        <v>2.1629</v>
+      </c>
+      <c r="G95">
+        <v>1.124E-9</v>
+      </c>
+      <c r="H95">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="I95">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="J95">
+        <v>65.11</v>
+      </c>
+      <c r="K95">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1.4653</v>
+      </c>
+      <c r="F96">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="G96">
+        <v>1.253E-12</v>
+      </c>
+      <c r="H96">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="I96">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="J96">
+        <v>109.9</v>
+      </c>
+      <c r="K96">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>5.8943000000000003</v>
+      </c>
+      <c r="F97">
+        <v>1.2685999999999999</v>
+      </c>
+      <c r="G97">
+        <v>2.6509999999999999E-2</v>
+      </c>
+      <c r="H97">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="I97">
+        <v>0.1082</v>
+      </c>
+      <c r="J97">
+        <v>5.3659999999999997</v>
+      </c>
+      <c r="K97">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>6.5223000000000004</v>
+      </c>
+      <c r="F98">
+        <v>1.5386</v>
+      </c>
+      <c r="G98">
+        <v>7.5609999999999997E-2</v>
+      </c>
+      <c r="H98">
+        <v>8.7419999999999998E-2</v>
+      </c>
+      <c r="I98">
+        <v>6.1350000000000002E-2</v>
+      </c>
+      <c r="J98">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="K98">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>6.2663000000000002</v>
+      </c>
+      <c r="F99">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="G99">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H99">
+        <v>9.6009999999999998E-2</v>
+      </c>
+      <c r="I99">
+        <v>7.0180000000000006E-2</v>
+      </c>
+      <c r="J99">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="K99">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1.1512100000000001</v>
+      </c>
+      <c r="F100">
+        <v>0.15387999999999999</v>
+      </c>
+      <c r="G100">
+        <v>3.7460000000000002E-3</v>
+      </c>
+      <c r="H100">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="I100">
+        <v>0.42409999999999998</v>
+      </c>
+      <c r="J100">
+        <v>12.05</v>
+      </c>
+      <c r="K100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1.131</v>
+      </c>
+      <c r="F101">
+        <v>3.391</v>
+      </c>
+      <c r="G101">
+        <v>5.6750000000000002E-2</v>
+      </c>
+      <c r="H101">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="I101">
+        <v>0.2273</v>
+      </c>
+      <c r="J101">
+        <v>4.53</v>
+      </c>
+      <c r="K101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>16.0671708</v>
+      </c>
+      <c r="F102">
+        <v>-3.8840000000000001E-4</v>
+      </c>
+      <c r="G102">
+        <v>2.9090000000000001E-2</v>
+      </c>
+      <c r="H102">
+        <v>0.31630000000000003</v>
+      </c>
+      <c r="I102">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="J102">
+        <v>6.0140000000000002</v>
+      </c>
+      <c r="K102">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>13.733144899999999</v>
+      </c>
+      <c r="F103">
+        <v>-3.2069999999999999E-4</v>
+      </c>
+      <c r="G103">
+        <v>3.8059999999999997E-2</v>
+      </c>
+      <c r="H103">
+        <v>0.3115</v>
+      </c>
+      <c r="I103">
+        <v>0.25409999999999999</v>
+      </c>
+      <c r="J103">
+        <v>5.43</v>
+      </c>
+      <c r="K103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>6.3979999999999997</v>
+      </c>
+      <c r="F104">
+        <v>7.4640000000000004E-5</v>
+      </c>
+      <c r="G104">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="H104">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="I104">
+        <v>9.8129999999999995E-2</v>
+      </c>
+      <c r="J104">
+        <v>5.1349999999999998</v>
+      </c>
+      <c r="K104">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="F105">
+        <v>7.0599999999999995E-5</v>
+      </c>
+      <c r="G105">
+        <v>4.6170000000000003E-2</v>
+      </c>
+      <c r="H105">
+        <v>0.1032</v>
+      </c>
+      <c r="I105">
+        <v>7.8939999999999996E-2</v>
+      </c>
+      <c r="J105">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="K105">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>14.614769000000001</v>
+      </c>
+      <c r="F106">
+        <v>-3.5E-4</v>
+      </c>
+      <c r="G106">
+        <v>1.619E-2</v>
+      </c>
+      <c r="H106">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="I106">
+        <v>0.1234</v>
+      </c>
+      <c r="J106">
+        <v>6.35</v>
+      </c>
+      <c r="K106">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>3.681</v>
+      </c>
+      <c r="F107">
+        <v>8.5450000000000003E-5</v>
+      </c>
+      <c r="G107">
+        <v>5.6739999999999999E-2</v>
+      </c>
+      <c r="H107">
+        <v>9.4649999999999998E-2</v>
+      </c>
+      <c r="I107">
+        <v>7.0180000000000006E-2</v>
+      </c>
+      <c r="J107">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="K107">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>5.4939999999999998</v>
+      </c>
+      <c r="F108">
+        <v>1.3960000000000001E-4</v>
+      </c>
+      <c r="G108">
+        <v>4.0960000000000003E-2</v>
+      </c>
+      <c r="H108">
+        <v>0.1081</v>
+      </c>
+      <c r="I108">
+        <v>8.4019999999999997E-2</v>
+      </c>
+      <c r="J108">
+        <v>4.4859999999999998</v>
+      </c>
+      <c r="K108">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>5.9204469</v>
+      </c>
+      <c r="F109">
+        <v>1.217E-4</v>
+      </c>
+      <c r="G109">
+        <v>8.0339999999999995E-2</v>
+      </c>
+      <c r="H109">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="I109">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="J109">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="K109">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>26.375</v>
+      </c>
+      <c r="F110">
+        <v>-6.4939999999999998</v>
+      </c>
+      <c r="G110">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="H110">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="I110">
+        <v>0.191</v>
+      </c>
+      <c r="J110">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="K110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>-7.7103000000000002</v>
+      </c>
+      <c r="F111">
+        <v>6.0049999999999999</v>
+      </c>
+      <c r="G111">
+        <v>4.4940000000000001E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="I111">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="J111">
+        <v>4.9219999999999997</v>
+      </c>
+      <c r="K111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>-16.498000000000001</v>
+      </c>
+      <c r="F112">
+        <v>8.3330000000000002</v>
+      </c>
+      <c r="G112">
+        <v>5.2399999999999999E-3</v>
+      </c>
+      <c r="H112">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="I112">
+        <v>0.42170000000000002</v>
+      </c>
+      <c r="J112">
+        <v>11.21</v>
+      </c>
+      <c r="K112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>-8.2349999999999994</v>
+      </c>
+      <c r="F113">
+        <v>5.298</v>
+      </c>
+      <c r="G113">
+        <v>5.1290000000000002E-2</v>
+      </c>
+      <c r="H113">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="I113">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="J113">
+        <v>4.6849999999999996</v>
+      </c>
+      <c r="K113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>-22.041</v>
+      </c>
+      <c r="F114">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="G114">
+        <v>2.7029999999999998E-2</v>
+      </c>
+      <c r="H114">
+        <v>0.3231</v>
+      </c>
+      <c r="I114">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="J114">
+        <v>6.2060000000000004</v>
+      </c>
+      <c r="K114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>-22.041</v>
+      </c>
+      <c r="F115">
+        <v>11.018000000000001</v>
+      </c>
+      <c r="G115">
+        <v>2.7029999999999998E-2</v>
+      </c>
+      <c r="H115">
+        <v>0.3231</v>
+      </c>
+      <c r="I115">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="J115">
+        <v>6.2060000000000004</v>
+      </c>
+      <c r="K115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>17.6508</v>
+      </c>
+      <c r="F116">
+        <v>-0.77590000000000003</v>
+      </c>
+      <c r="G116">
+        <v>7.5660000000000005E-2</v>
+      </c>
+      <c r="H116">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="I116">
+        <v>0.2102</v>
+      </c>
+      <c r="J116">
+        <v>3.927</v>
+      </c>
+      <c r="K116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>6.2613000000000003</v>
+      </c>
+      <c r="F117">
+        <v>2.2818999999999998</v>
+      </c>
+      <c r="G117">
+        <v>4.4880000000000003E-2</v>
+      </c>
+      <c r="H117">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="I117">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="J117">
+        <v>5.2519999999999998</v>
+      </c>
+      <c r="K117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>5.9633000000000003</v>
+      </c>
+      <c r="F118">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="G118">
+        <v>6.8900000000000003E-3</v>
+      </c>
+      <c r="H118">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="I118">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="J118">
+        <v>12.14</v>
+      </c>
+      <c r="K118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>6.1440000000000001</v>
+      </c>
+      <c r="F119">
+        <v>2.298</v>
+      </c>
+      <c r="G119">
+        <v>6.4509999999999998E-2</v>
+      </c>
+      <c r="H119">
+        <v>0.3301</v>
+      </c>
+      <c r="I119">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="J119">
+        <v>4.4340000000000002</v>
+      </c>
+      <c r="K119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>6.28</v>
+      </c>
+      <c r="F120">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="G120">
+        <v>1.748E-3</v>
+      </c>
+      <c r="H120">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="I120">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="J120">
+        <v>17.88</v>
+      </c>
+      <c r="K120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>9.5139999999999993</v>
+      </c>
+      <c r="F121">
+        <v>2.794</v>
+      </c>
+      <c r="G121">
+        <v>1.555E-2</v>
+      </c>
+      <c r="H121">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="I121">
+        <v>0.1628</v>
+      </c>
+      <c r="J121">
+        <v>6.6379999999999999</v>
+      </c>
+      <c r="K121">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>9.4819999999999993</v>
+      </c>
+      <c r="F122">
+        <v>2.081</v>
+      </c>
+      <c r="G122">
+        <v>9.6430000000000002E-2</v>
+      </c>
+      <c r="H122">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I122">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="J122">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="K122">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>9.6110000000000007</v>
+      </c>
+      <c r="F123">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="G123">
+        <v>1.6039999999999999E-2</v>
+      </c>
+      <c r="H123">
+        <v>0.184</v>
+      </c>
+      <c r="I123">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="J123">
+        <v>6.54</v>
+      </c>
+      <c r="K123">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>9.6110000000000007</v>
+      </c>
+      <c r="F124">
+        <v>2.7109999999999999</v>
+      </c>
+      <c r="G124">
+        <v>1.5440000000000001E-2</v>
+      </c>
+      <c r="H124">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="I124">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="J124">
+        <v>6.6239999999999997</v>
+      </c>
+      <c r="K124">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>8.7379999999999995</v>
+      </c>
+      <c r="F125">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="G125">
+        <v>5.7329999999999999E-2</v>
+      </c>
+      <c r="H125">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="I125">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="J125">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="K125">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>8.6539999999999999</v>
+      </c>
+      <c r="F126">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="G126">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H126">
+        <v>0.2142</v>
+      </c>
+      <c r="I126">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J126">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="K126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>8.8840000000000003</v>
+      </c>
+      <c r="F127">
+        <v>3.516</v>
+      </c>
+      <c r="G127">
+        <v>2.0959999999999999E-2</v>
+      </c>
+      <c r="H127">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="I127">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="J127">
+        <v>6.4729999999999999</v>
+      </c>
+      <c r="K127">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>83923</v>
+      </c>
+      <c r="F128">
+        <v>3.3450000000000002</v>
+      </c>
+      <c r="G128">
+        <v>3.5970000000000002E-2</v>
+      </c>
+      <c r="H128">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="I128">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="J128">
+        <v>5.242</v>
+      </c>
+      <c r="K128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>8.7409999999999997</v>
+      </c>
+      <c r="F129">
+        <v>3.427</v>
+      </c>
+      <c r="G129">
+        <v>1.453E-2</v>
+      </c>
+      <c r="H129">
+        <v>0.28889999999999999</v>
+      </c>
+      <c r="I129">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="J129">
+        <v>7.3109999999999999</v>
+      </c>
+      <c r="K129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>8.657</v>
+      </c>
+      <c r="F130">
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="G130">
+        <v>6.5759999999999999E-2</v>
+      </c>
+      <c r="H130">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="I130">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="J130">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="K130">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>8.8879999999999999</v>
+      </c>
+      <c r="F131">
+        <v>3.899</v>
+      </c>
+      <c r="G131">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="H131">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="I131">
+        <v>0.28060000000000002</v>
+      </c>
+      <c r="J131">
+        <v>8.02</v>
+      </c>
+      <c r="K131">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>8.84</v>
+      </c>
+      <c r="F132">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="G132">
+        <v>3.8420000000000003E-2</v>
+      </c>
+      <c r="H132">
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="I132">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="J132">
+        <v>5.09</v>
+      </c>
+      <c r="K132">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>-35.856999999999999</v>
+      </c>
+      <c r="F133">
+        <v>2.2240000000000002</v>
+      </c>
+      <c r="G133">
+        <v>7.2859999999999994E-2</v>
+      </c>
+      <c r="H133">
+        <v>8.9020000000000002E-2</v>
+      </c>
+      <c r="I133">
+        <v>6.2990000000000004E-2</v>
+      </c>
+      <c r="J133">
+        <v>3.42</v>
+      </c>
+      <c r="K133">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>-91.662999999999997</v>
+      </c>
+      <c r="F134">
+        <v>4.6040000000000001</v>
+      </c>
+      <c r="G134">
+        <v>6.4269999999999994E-2</v>
+      </c>
+      <c r="H134">
+        <v>0.2777</v>
+      </c>
+      <c r="I134">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="J134">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="K134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>15.357200000000001</v>
+      </c>
+      <c r="F135">
+        <v>-0.7712</v>
+      </c>
+      <c r="G135">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="H135">
+        <v>0.1358</v>
+      </c>
+      <c r="I135">
+        <v>0.1111</v>
+      </c>
+      <c r="J135">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="K135">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>13.866199999999999</v>
+      </c>
+      <c r="F136">
+        <v>-0.55179999999999996</v>
+      </c>
+      <c r="G136">
+        <v>5.4879999999999998E-2</v>
+      </c>
+      <c r="H136">
+        <v>0.1013</v>
+      </c>
+      <c r="I136">
+        <v>7.5630000000000003E-2</v>
+      </c>
+      <c r="J136">
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="K136">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>4.0232999999999999</v>
+      </c>
+      <c r="F137">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="G137">
+        <v>5.3269999999999998E-2</v>
+      </c>
+      <c r="H137">
+        <v>9.7259999999999999E-2</v>
+      </c>
+      <c r="I137">
+        <v>7.2859999999999994E-2</v>
+      </c>
+      <c r="J137">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="K137">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>5.2873999999999999</v>
+      </c>
+      <c r="F138">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="G138">
+        <v>6.7089999999999997E-2</v>
+      </c>
+      <c r="H138">
+        <v>8.7749999999999995E-2</v>
+      </c>
+      <c r="I138">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="J138">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="K138">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>-0.38350000000000001</v>
+      </c>
+      <c r="F139">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="G139">
+        <v>5.7689999999999998E-2</v>
+      </c>
+      <c r="H139">
+        <v>9.3969999999999998E-2</v>
+      </c>
+      <c r="I139">
+        <v>6.948E-2</v>
+      </c>
+      <c r="J139">
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="K139">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>-0.81950000000000001</v>
+      </c>
+      <c r="F140">
+        <v>2.7115999999999998</v>
+      </c>
+      <c r="G140">
+        <v>5.2560000000000003E-2</v>
+      </c>
+      <c r="H140">
+        <v>9.7820000000000004E-2</v>
+      </c>
+      <c r="I140">
+        <v>7.3429999999999995E-2</v>
+      </c>
+      <c r="J140">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="K140">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>1.2254</v>
+      </c>
+      <c r="F141">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="G141">
+        <v>7.6050000000000006E-2</v>
+      </c>
+      <c r="H141">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="I141">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="J141">
+        <v>4.016</v>
+      </c>
+      <c r="K141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>1.0294000000000001</v>
+      </c>
+      <c r="F142">
+        <v>0.42</v>
+      </c>
+      <c r="G142">
+        <v>2.342E-2</v>
+      </c>
+      <c r="H142">
+        <v>0.49390000000000001</v>
+      </c>
+      <c r="I142">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="J142">
+        <v>7.806</v>
+      </c>
+      <c r="K142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>2.1577999999999999</v>
+      </c>
+      <c r="F143">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="G143">
+        <v>9.6339999999999995E-2</v>
+      </c>
+      <c r="H143">
+        <v>0.1542</v>
+      </c>
+      <c r="I143">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="J143">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="K143">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>2.2631999999999999</v>
+      </c>
+      <c r="F144">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="G144">
+        <v>9.4509999999999997E-2</v>
+      </c>
+      <c r="H144">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="I144">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="J144">
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="K144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" t="s">
+        <v>38</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>2.1589</v>
+      </c>
+      <c r="F145">
+        <v>1.0148999999999999</v>
+      </c>
+      <c r="G145">
+        <v>5.2069999999999998E-2</v>
+      </c>
+      <c r="H145">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="I145">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="J145">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="K145">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" t="s">
+        <v>38</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>2.2551000000000001</v>
+      </c>
+      <c r="F146">
+        <v>1.0516000000000001</v>
+      </c>
+      <c r="G146">
+        <v>4.6710000000000002E-2</v>
+      </c>
+      <c r="H146">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I146">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="J146">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="K146">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" t="s">
+        <v>55</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>4.1520000000000001</v>
+      </c>
+      <c r="F147">
+        <v>-0.20930000000000001</v>
+      </c>
+      <c r="G147">
+        <v>4.7260000000000003E-2</v>
+      </c>
+      <c r="H147">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="I147">
+        <v>8.2309999999999994E-2</v>
+      </c>
+      <c r="J147">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="K147">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>4.0808099999999996</v>
+      </c>
+      <c r="F148">
+        <v>-0.20291000000000001</v>
+      </c>
+      <c r="G148">
+        <v>4.9169999999999998E-2</v>
+      </c>
+      <c r="H148">
+        <v>0.1032</v>
+      </c>
+      <c r="I148">
+        <v>7.8329999999999997E-2</v>
+      </c>
+      <c r="J148">
+        <v>4.1449999999999996</v>
+      </c>
+      <c r="K148">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>1.06986</v>
+      </c>
+      <c r="F149">
+        <v>8.5879999999999998E-2</v>
+      </c>
+      <c r="G149">
+        <v>9.9940000000000001E-2</v>
+      </c>
+      <c r="H149">
+        <v>7.1459999999999996E-2</v>
+      </c>
+      <c r="I149">
+        <v>4.6359999999999998E-2</v>
+      </c>
+      <c r="J149">
+        <v>2.847</v>
+      </c>
+      <c r="K149">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" t="s">
+        <v>55</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>3.3283999999999998</v>
+      </c>
+      <c r="F150">
+        <v>-0.30259999999999998</v>
+      </c>
+      <c r="G150">
+        <v>8.8029999999999997E-2</v>
+      </c>
+      <c r="H150">
+        <v>8.0869999999999997E-2</v>
+      </c>
+      <c r="I150">
+        <v>5.4609999999999999E-2</v>
+      </c>
+      <c r="J150">
+        <v>3.08</v>
+      </c>
+      <c r="K150">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>22.503599999999999</v>
+      </c>
+      <c r="F151">
+        <v>-0.74519999999999997</v>
+      </c>
+      <c r="G151">
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="H151">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="I151">
+        <v>7.5060000000000002E-2</v>
+      </c>
+      <c r="J151">
+        <v>3.516</v>
+      </c>
+      <c r="K151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>-3.7271000000000001</v>
+      </c>
+      <c r="F152">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="G152">
+        <v>5.3339999999999999E-2</v>
+      </c>
+      <c r="H152">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="I152">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="J152">
+        <v>4.6829999999999998</v>
+      </c>
+      <c r="K152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" t="s">
+        <v>38</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>21.6267</v>
+      </c>
+      <c r="F153">
+        <v>-0.81499999999999995</v>
+      </c>
+      <c r="G153">
+        <v>9.9260000000000001E-2</v>
+      </c>
+      <c r="H153">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="I153">
+        <v>9.1079999999999994E-2</v>
+      </c>
+      <c r="J153">
+        <v>3.004</v>
+      </c>
+      <c r="K153">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" t="s">
+        <v>38</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>2.4765000000000001</v>
+      </c>
+      <c r="F154">
+        <v>-1.0091000000000001</v>
+      </c>
+      <c r="G154">
+        <v>7.3679999999999995E-2</v>
+      </c>
+      <c r="H154">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="I154">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="J154">
+        <v>3.9910000000000001</v>
+      </c>
+      <c r="K154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>2.2662</v>
+      </c>
+      <c r="F155">
+        <v>1.087</v>
+      </c>
+      <c r="G155">
+        <v>8.2850000000000007E-3</v>
+      </c>
+      <c r="H155">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="I155">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="J155">
+        <v>10.76</v>
+      </c>
+      <c r="K155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>3.8477999999999999</v>
+      </c>
+      <c r="F156">
+        <v>1.3809</v>
+      </c>
+      <c r="G156">
+        <v>5.9699999999999996E-3</v>
+      </c>
+      <c r="H156">
+        <v>0.2402</v>
+      </c>
+      <c r="I156">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="J156">
+        <v>8.8529999999999998</v>
+      </c>
+      <c r="K156">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" t="s">
+        <v>38</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>3.8818000000000001</v>
+      </c>
+      <c r="F157">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="G157">
+        <v>6.6239999999999993E-2</v>
+      </c>
+      <c r="H157">
+        <v>0.1195</v>
+      </c>
+      <c r="I157">
+        <v>8.6889999999999995E-2</v>
+      </c>
+      <c r="J157">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="K157">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>3.9163000000000001</v>
+      </c>
+      <c r="F158">
+        <v>1.3754999999999999</v>
+      </c>
+      <c r="G158">
+        <v>5.2379999999999996E-3</v>
+      </c>
+      <c r="H158">
+        <v>0.2392</v>
+      </c>
+      <c r="I158">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J158">
+        <v>9.1170000000000009</v>
+      </c>
+      <c r="K158">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>3.9165000000000001</v>
+      </c>
+      <c r="F159">
+        <v>1.3486</v>
+      </c>
+      <c r="G159">
+        <v>5.9090000000000002E-3</v>
+      </c>
+      <c r="H159">
+        <v>0.2334</v>
+      </c>
+      <c r="I159">
+        <v>0.2069</v>
+      </c>
+      <c r="J159">
+        <v>8.8279999999999994</v>
+      </c>
+      <c r="K159">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>3.4460000000000002</v>
+      </c>
+      <c r="F160">
+        <v>1.208</v>
+      </c>
+      <c r="G160">
+        <v>5.0259999999999999E-2</v>
+      </c>
+      <c r="H160">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="I160">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="J160">
+        <v>4.4029999999999996</v>
+      </c>
+      <c r="K160">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" t="s">
+        <v>38</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>3.4794999999999998</v>
+      </c>
+      <c r="F161">
+        <v>1.2695000000000001</v>
+      </c>
+      <c r="G161">
+        <v>6.6629999999999995E-2</v>
+      </c>
+      <c r="H161">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="I161">
+        <v>0.1363</v>
+      </c>
+      <c r="J161">
+        <v>3.8410000000000002</v>
+      </c>
+      <c r="K161">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" t="s">
+        <v>38</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>3.4649000000000001</v>
+      </c>
+      <c r="F162">
+        <v>1.1820999999999999</v>
+      </c>
+      <c r="G162">
+        <v>9.0240000000000001E-2</v>
+      </c>
+      <c r="H162">
+        <v>0.1595</v>
+      </c>
+      <c r="I162">
+        <v>0.1101</v>
+      </c>
+      <c r="J162">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="K162">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>50</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>3.4476</v>
+      </c>
+      <c r="F163">
+        <v>1.5561</v>
+      </c>
+      <c r="G163">
+        <v>1.115E-2</v>
+      </c>
+      <c r="H163">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="I163">
+        <v>0.26910000000000001</v>
+      </c>
+      <c r="J163">
+        <v>7.9960000000000004</v>
+      </c>
+      <c r="K163">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>61</v>
+      </c>
+      <c r="C164" t="s">
+        <v>38</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>3.4805000000000001</v>
+      </c>
+      <c r="F164">
+        <v>1.2083999999999999</v>
+      </c>
+      <c r="G164">
+        <v>9.2050000000000007E-2</v>
+      </c>
+      <c r="H164">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="I164">
+        <v>0.1084</v>
+      </c>
+      <c r="J164">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="K164">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>61</v>
+      </c>
+      <c r="C165" t="s">
+        <v>38</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>3.4664999999999999</v>
+      </c>
+      <c r="F165">
+        <v>1.4480999999999999</v>
+      </c>
+      <c r="G165">
+        <v>3.9489999999999997E-2</v>
+      </c>
+      <c r="H165">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="I165">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="J165">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="K165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" t="s">
+        <v>38</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>-3.4207999999999998</v>
+      </c>
+      <c r="F166">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="G166">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="H166">
+        <v>9.2280000000000001E-2</v>
+      </c>
+      <c r="I166">
+        <v>6.7750000000000005E-2</v>
+      </c>
+      <c r="J166">
+        <v>3.762</v>
+      </c>
+      <c r="K166">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" t="s">
+        <v>52</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>29.040900000000001</v>
+      </c>
+      <c r="F167">
+        <v>-1.242</v>
+      </c>
+      <c r="G167">
+        <v>7.6929999999999998E-2</v>
+      </c>
+      <c r="H167">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="I167">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="J167">
+        <v>3.46</v>
+      </c>
+      <c r="K167">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" t="s">
+        <v>52</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>-25.033999999999999</v>
+      </c>
+      <c r="F168">
+        <v>1.306</v>
+      </c>
+      <c r="G168">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="H168">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I168">
+        <v>0.1729</v>
+      </c>
+      <c r="J168">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="K168">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169" t="s">
+        <v>52</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>-43.122700000000002</v>
+      </c>
+      <c r="F169">
+        <v>2.1315</v>
+      </c>
+      <c r="G169">
+        <v>2.5329999999999998E-2</v>
+      </c>
+      <c r="H169">
+        <v>0.378</v>
+      </c>
+      <c r="I169">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="J169">
+        <v>6.6859999999999999</v>
+      </c>
+      <c r="K169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" t="s">
+        <v>55</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>6.3474000000000004</v>
+      </c>
+      <c r="F170">
+        <v>-0.31950000000000001</v>
+      </c>
+      <c r="G170">
+        <v>3.8809999999999997E-2</v>
+      </c>
+      <c r="H170">
+        <v>0.1164</v>
+      </c>
+      <c r="I170">
+        <v>9.1120000000000007E-2</v>
+      </c>
+      <c r="J170">
+        <v>4.609</v>
+      </c>
+      <c r="K170">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" t="s">
+        <v>55</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>6.0049000000000001</v>
+      </c>
+      <c r="F171">
+        <v>-0.2611</v>
+      </c>
+      <c r="G171">
+        <v>4.1739999999999999E-2</v>
+      </c>
+      <c r="H171">
+        <v>0.1132</v>
+      </c>
+      <c r="I171">
+        <v>8.7859999999999994E-2</v>
+      </c>
+      <c r="J171">
+        <v>4.468</v>
+      </c>
+      <c r="K171">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" t="s">
+        <v>55</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>1.0829299999999999</v>
+      </c>
+      <c r="F172">
+        <v>0.16742000000000001</v>
+      </c>
+      <c r="G172">
+        <v>2.6020000000000001E-2</v>
+      </c>
+      <c r="H172">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="I172">
+        <v>0.1033</v>
+      </c>
+      <c r="J172">
+        <v>5.3780000000000001</v>
+      </c>
+      <c r="K172">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" t="s">
+        <v>55</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>-1.0125999999999999</v>
+      </c>
+      <c r="F173">
+        <v>0.10803</v>
+      </c>
+      <c r="G173">
+        <v>3.508E-2</v>
+      </c>
+      <c r="H173">
+        <v>0.1145</v>
+      </c>
+      <c r="I173">
+        <v>9.0609999999999996E-2</v>
+      </c>
+      <c r="J173">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="K173">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>60</v>
+      </c>
+      <c r="C174" t="s">
+        <v>55</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>-1.0698000000000001</v>
+      </c>
+      <c r="F174">
+        <v>1.3010999999999999</v>
+      </c>
+      <c r="G174">
+        <v>3.755E-2</v>
+      </c>
+      <c r="H174">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="I174">
+        <v>8.7720000000000006E-2</v>
+      </c>
+      <c r="J174">
+        <v>4.6539999999999999</v>
+      </c>
+      <c r="K174">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>66</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>3.7124999999999999</v>
+      </c>
+      <c r="F175">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="G175">
+        <v>6.4210000000000003E-2</v>
+      </c>
+      <c r="H175">
+        <v>8.9550000000000005E-2</v>
+      </c>
+      <c r="I175">
+        <v>6.4949999999999994E-2</v>
+      </c>
+      <c r="J175">
+        <v>3.6389999999999998</v>
+      </c>
+      <c r="K175">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>67</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>3.7195999999999998</v>
+      </c>
+      <c r="F176">
+        <v>0.7631</v>
+      </c>
+      <c r="G176">
+        <v>8.5360000000000005E-2</v>
+      </c>
+      <c r="H176">
+        <v>7.7880000000000005E-2</v>
+      </c>
+      <c r="I176">
+        <v>5.2949999999999997E-2</v>
+      </c>
+      <c r="J176">
+        <v>3.125</v>
+      </c>
+      <c r="K176">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>69</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="F177">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="G177">
+        <v>6.1170000000000002E-2</v>
+      </c>
+      <c r="H177">
+        <v>9.4009999999999996E-2</v>
+      </c>
+      <c r="I177">
+        <v>6.8839999999999998E-2</v>
+      </c>
+      <c r="J177">
+        <v>3.7349999999999999</v>
+      </c>
+      <c r="K177">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>70</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>3.8134000000000001</v>
+      </c>
+      <c r="F178">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="G178">
+        <v>5.5129999999999998E-2</v>
+      </c>
+      <c r="H178">
+        <v>9.8409999999999997E-2</v>
+      </c>
+      <c r="I178">
+        <v>7.3359999999999995E-2</v>
+      </c>
+      <c r="J178">
+        <v>3.9289999999999998</v>
+      </c>
+      <c r="K178">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>71</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>3.806</v>
+      </c>
+      <c r="F179">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="G179">
+        <v>7.3459999999999998E-2</v>
+      </c>
+      <c r="H179">
+        <v>8.6279999999999996E-2</v>
+      </c>
+      <c r="I179">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="J179">
+        <v>3.399</v>
+      </c>
+      <c r="K179">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>72</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>3.7957999999999998</v>
+      </c>
+      <c r="F180">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="G180">
+        <v>5.9279999999999999E-2</v>
+      </c>
+      <c r="H180">
+        <v>9.5329999999999998E-2</v>
+      </c>
+      <c r="I180">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="J180">
+        <v>3.794</v>
+      </c>
+      <c r="K180">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" t="s">
+        <v>73</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>3.7124999999999999</v>
+      </c>
+      <c r="F181">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="G181">
+        <v>9.3670000000000003E-2</v>
+      </c>
+      <c r="H181">
+        <v>7.4090000000000003E-2</v>
+      </c>
+      <c r="I181">
+        <v>4.9059999999999999E-2</v>
+      </c>
+      <c r="J181">
+        <v>2.9609999999999999</v>
+      </c>
+      <c r="K181">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C182" t="s">
+        <v>38</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>9.8994</v>
+      </c>
+      <c r="F182">
+        <v>-0.51680000000000004</v>
+      </c>
+      <c r="G182">
+        <v>6.8329999999999997E-3</v>
+      </c>
+      <c r="H182">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="I182">
+        <v>0.4551</v>
+      </c>
+      <c r="J182">
+        <v>11.02</v>
+      </c>
+      <c r="K182">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" t="s">
+        <v>38</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>2.4087000000000001</v>
+      </c>
+      <c r="F183">
+        <v>1.3501000000000001</v>
+      </c>
+      <c r="G183">
+        <v>1.4019999999999999E-2</v>
+      </c>
+      <c r="H183">
+        <v>0.45879999999999999</v>
+      </c>
+      <c r="I183">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="J183">
+        <v>8.827</v>
+      </c>
+      <c r="K183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>2.5308999999999999</v>
+      </c>
+      <c r="F184">
+        <v>1.224</v>
+      </c>
+      <c r="G184">
+        <v>3.977E-2</v>
+      </c>
+      <c r="H184">
+        <v>0.3906</v>
+      </c>
+      <c r="I184">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="J184">
+        <v>5.7690000000000001</v>
+      </c>
+      <c r="K184">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>41</v>
+      </c>
+      <c r="C185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>2.1642999999999999</v>
+      </c>
+      <c r="F185">
+        <v>1.3008</v>
+      </c>
+      <c r="G185">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="H185">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="I185">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="J185">
+        <v>8.6029999999999998</v>
+      </c>
+      <c r="K185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" t="s">
+        <v>41</v>
+      </c>
+      <c r="C186" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="F186">
+        <v>1.6197999999999999</v>
+      </c>
+      <c r="G186">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="H186">
+        <v>0.62229999999999996</v>
+      </c>
+      <c r="I186">
+        <v>0.58040000000000003</v>
+      </c>
+      <c r="J186">
+        <v>14.84</v>
+      </c>
+      <c r="K186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" t="s">
+        <v>42</v>
+      </c>
+      <c r="C187" t="s">
+        <v>38</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>2.4114</v>
+      </c>
+      <c r="F187">
+        <v>1.4823999999999999</v>
+      </c>
+      <c r="G187">
+        <v>5.5719999999999997E-3</v>
+      </c>
+      <c r="H187">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="I187">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="J187">
+        <v>12.37</v>
+      </c>
+      <c r="K187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>42</v>
+      </c>
+      <c r="C188" t="s">
+        <v>38</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>2.5886</v>
+      </c>
+      <c r="F188">
+        <v>1.1504000000000001</v>
+      </c>
+      <c r="G188">
+        <v>7.4569999999999997E-2</v>
+      </c>
+      <c r="H188">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="I188">
+        <v>0.2346</v>
+      </c>
+      <c r="J188">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="K188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" t="s">
+        <v>43</v>
+      </c>
+      <c r="C189" t="s">
+        <v>38</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>2.4154</v>
+      </c>
+      <c r="F189">
+        <v>1.4547000000000001</v>
+      </c>
+      <c r="G189">
+        <v>3.9690000000000003E-3</v>
+      </c>
+      <c r="H189">
+        <v>0.5806</v>
+      </c>
+      <c r="I189">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="J189">
+        <v>13.85</v>
+      </c>
+      <c r="K189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s">
+        <v>46</v>
+      </c>
+      <c r="C190" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>3.0495999999999999</v>
+      </c>
+      <c r="F190">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="G190">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="H190">
+        <v>0.1371</v>
+      </c>
+      <c r="I190">
+        <v>0.1074</v>
+      </c>
+      <c r="J190">
+        <v>4.609</v>
+      </c>
+      <c r="K190">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" t="s">
+        <v>47</v>
+      </c>
+      <c r="C191" t="s">
+        <v>38</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>3.0497000000000001</v>
+      </c>
+      <c r="F191">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="G191">
+        <v>4.4069999999999998E-2</v>
+      </c>
+      <c r="H191">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="I191">
+        <v>0.1026</v>
+      </c>
+      <c r="J191">
+        <v>4.431</v>
+      </c>
+      <c r="K191">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" t="s">
+        <v>49</v>
+      </c>
+      <c r="C192" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>3.0834000000000001</v>
+      </c>
+      <c r="F192">
+        <v>1.2513000000000001</v>
+      </c>
+      <c r="G192">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="H192">
+        <v>0.1739</v>
+      </c>
+      <c r="I192">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="J192">
+        <v>3.5779999999999998</v>
+      </c>
+      <c r="K192">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193" t="s">
+        <v>38</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>3.0531999999999999</v>
+      </c>
+      <c r="F193">
+        <v>1.5353000000000001</v>
+      </c>
+      <c r="G193">
+        <v>3.015E-2</v>
+      </c>
+      <c r="H193">
+        <v>0.26129999999999998</v>
+      </c>
+      <c r="I193">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="J193">
+        <v>5.66</v>
+      </c>
+      <c r="K193">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>3.0844999999999998</v>
+      </c>
+      <c r="F194">
+        <v>1.2114</v>
+      </c>
+      <c r="G194">
+        <v>9.6390000000000003E-2</v>
+      </c>
+      <c r="H194">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="I194">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="J194">
+        <v>3.097</v>
+      </c>
+      <c r="K194">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" t="s">
+        <v>61</v>
+      </c>
+      <c r="C195" t="s">
+        <v>38</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>3.0341999999999998</v>
+      </c>
+      <c r="F195">
+        <v>1.4751000000000001</v>
+      </c>
+      <c r="G195">
+        <v>4.394E-2</v>
+      </c>
+      <c r="H195">
+        <v>0.2301</v>
+      </c>
+      <c r="I195">
+        <v>0.182</v>
+      </c>
+      <c r="J195">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="K195">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>74</v>
+      </c>
+      <c r="C196" t="s">
+        <v>38</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>8.3391999999999999</v>
+      </c>
+      <c r="F196">
+        <v>-0.28389999999999999</v>
+      </c>
+      <c r="G196">
+        <v>7.5310000000000002E-2</v>
+      </c>
+      <c r="H196">
+        <v>0.2233</v>
+      </c>
+      <c r="I196">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="J196">
+        <v>3.7370000000000001</v>
+      </c>
+      <c r="K196">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C197" t="s">
+        <v>38</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>14.6638</v>
+      </c>
+      <c r="F197">
+        <v>-0.54159999999999997</v>
+      </c>
+      <c r="G197">
+        <v>5.0270000000000002E-2</v>
+      </c>
+      <c r="H197">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="I197">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="J197">
+        <v>4.95</v>
+      </c>
+      <c r="K197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" t="s">
+        <v>51</v>
+      </c>
+      <c r="C198" t="s">
+        <v>52</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>-17.838699999999999</v>
+      </c>
+      <c r="F198">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="G198">
+        <v>5.9389999999999998E-2</v>
+      </c>
+      <c r="H198">
+        <v>9.7879999999999995E-2</v>
+      </c>
+      <c r="I198">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="J198">
+        <v>3.7970000000000002</v>
+      </c>
+      <c r="K198">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" t="s">
+        <v>65</v>
+      </c>
+      <c r="C199" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>23.8127</v>
+      </c>
+      <c r="F199">
+        <v>-0.99019999999999997</v>
+      </c>
+      <c r="G199">
+        <v>1.992E-2</v>
+      </c>
+      <c r="H199">
+        <v>7.2</v>
+      </c>
+      <c r="I199">
+        <v>0.375</v>
+      </c>
+      <c r="J199">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="K199">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200" t="s">
+        <v>52</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>44.725000000000001</v>
+      </c>
+      <c r="F200">
+        <v>-1.9770000000000001</v>
+      </c>
+      <c r="G200">
+        <v>9.0670000000000001E-2</v>
+      </c>
+      <c r="H200">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="I200">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="J200">
+        <v>3.59</v>
+      </c>
+      <c r="K200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>39</v>
+      </c>
+      <c r="C201" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>7.5841000000000003</v>
+      </c>
+      <c r="F201">
+        <v>-0.39779999999999999</v>
+      </c>
+      <c r="G201">
+        <v>1.41E-2</v>
+      </c>
+      <c r="H201">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="I201">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="J201">
+        <v>8.4890000000000008</v>
+      </c>
+      <c r="K201">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" t="s">
+        <v>39</v>
+      </c>
+      <c r="C202" t="s">
+        <v>38</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>7.0778999999999996</v>
+      </c>
+      <c r="F202">
+        <v>-0.35649999999999998</v>
+      </c>
+      <c r="G202">
+        <v>4.5030000000000001E-2</v>
+      </c>
+      <c r="H202">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I202">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="J202">
+        <v>5.2430000000000003</v>
+      </c>
+      <c r="K202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>24</v>
+      </c>
+      <c r="B203" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" t="s">
+        <v>38</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1.8458000000000001</v>
+      </c>
+      <c r="F203">
+        <v>1.0625</v>
+      </c>
+      <c r="G203">
+        <v>2.0289999999999999E-2</v>
+      </c>
+      <c r="H203">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="I203">
+        <v>0.37469999999999998</v>
+      </c>
+      <c r="J203">
+        <v>7.593</v>
+      </c>
+      <c r="K203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>24</v>
+      </c>
+      <c r="B204" t="s">
+        <v>40</v>
+      </c>
+      <c r="C204" t="s">
+        <v>38</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>1.9630000000000001</v>
+      </c>
+      <c r="F204">
+        <v>1.0041</v>
+      </c>
+      <c r="G204">
+        <v>3.8030000000000001E-2</v>
+      </c>
+      <c r="H204">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I204">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J204">
+        <v>5.9009999999999998</v>
+      </c>
+      <c r="K204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>24</v>
+      </c>
+      <c r="B205" t="s">
+        <v>41</v>
+      </c>
+      <c r="C205" t="s">
+        <v>38</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>1.6033999999999999</v>
+      </c>
+      <c r="F205">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G205">
+        <v>2.7019999999999999E-2</v>
+      </c>
+      <c r="H205">
+        <v>0.436</v>
+      </c>
+      <c r="I205">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="J205">
+        <v>6.9560000000000004</v>
+      </c>
+      <c r="K205">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" t="s">
+        <v>38</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1.9358</v>
+      </c>
+      <c r="F206">
+        <v>1.3008</v>
+      </c>
+      <c r="G206">
+        <v>4.8479999999999999E-3</v>
+      </c>
+      <c r="H206">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="I206">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="J206">
+        <v>13.76</v>
+      </c>
+      <c r="K206">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" t="s">
+        <v>42</v>
+      </c>
+      <c r="C207" t="s">
+        <v>38</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1.8484</v>
+      </c>
+      <c r="F207">
+        <v>1.2152000000000001</v>
+      </c>
+      <c r="G207">
+        <v>5.64E-3</v>
+      </c>
+      <c r="H207">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="I207">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="J207">
+        <v>12.34</v>
+      </c>
+      <c r="K207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" t="s">
+        <v>42</v>
+      </c>
+      <c r="C208" t="s">
+        <v>38</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>2.0211999999999999</v>
+      </c>
+      <c r="F208">
+        <v>1.0618000000000001</v>
+      </c>
+      <c r="G208">
+        <v>3.6979999999999999E-2</v>
+      </c>
+      <c r="H208">
+        <v>0.39939999999999998</v>
+      </c>
+      <c r="I208">
+        <v>0.3327</v>
+      </c>
+      <c r="J208">
+        <v>5.9850000000000003</v>
+      </c>
+      <c r="K208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" t="s">
+        <v>43</v>
+      </c>
+      <c r="C209" t="s">
+        <v>38</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1.8514999999999999</v>
+      </c>
+      <c r="F209">
+        <v>1.1716</v>
+      </c>
+      <c r="G209">
+        <v>5.1279999999999997E-3</v>
+      </c>
+      <c r="H209">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="I209">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="J209">
+        <v>12.72</v>
+      </c>
+      <c r="K209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210" t="s">
+        <v>46</v>
+      </c>
+      <c r="C210" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>2.4310999999999998</v>
+      </c>
+      <c r="F210">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="G210">
+        <v>3.8730000000000001E-2</v>
+      </c>
+      <c r="H210">
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="I210">
+        <v>0.1095</v>
+      </c>
+      <c r="J210">
+        <v>4.6879999999999997</v>
+      </c>
+      <c r="K210">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" t="s">
+        <v>38</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>2.4312</v>
+      </c>
+      <c r="F211">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="G211">
+        <v>4.6940000000000003E-2</v>
+      </c>
+      <c r="H211">
+        <v>0.1293</v>
+      </c>
+      <c r="I211">
+        <v>9.9279999999999993E-2</v>
+      </c>
+      <c r="J211">
+        <v>4.3070000000000004</v>
+      </c>
+      <c r="K211">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" t="s">
+        <v>49</v>
+      </c>
+      <c r="C212" t="s">
+        <v>38</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>2.3351000000000002</v>
+      </c>
+      <c r="F212">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="G212">
+        <v>8.1339999999999996E-2</v>
+      </c>
+      <c r="H212">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I212">
+        <v>0.1191</v>
+      </c>
+      <c r="J212">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="K212">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" t="s">
+        <v>49</v>
+      </c>
+      <c r="C213" t="s">
+        <v>38</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <v>2.2909000000000002</v>
+      </c>
+      <c r="F213">
+        <v>1.1355</v>
+      </c>
+      <c r="G213">
+        <v>3.952E-2</v>
+      </c>
+      <c r="H213">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I213">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="J213">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="K213">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" t="s">
+        <v>61</v>
+      </c>
+      <c r="C214" t="s">
+        <v>38</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>2.2770999999999999</v>
+      </c>
+      <c r="F214">
+        <v>1.1109</v>
+      </c>
+      <c r="G214">
+        <v>5.0610000000000002E-2</v>
+      </c>
+      <c r="H214">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="I214">
+        <v>0.1694</v>
+      </c>
+      <c r="J214">
+        <v>4.4669999999999996</v>
+      </c>
+      <c r="K214">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>24</v>
+      </c>
+      <c r="B215" t="s">
+        <v>75</v>
+      </c>
+      <c r="C215" t="s">
+        <v>38</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>11.849600000000001</v>
+      </c>
+      <c r="F215">
+        <v>-0.44209999999999999</v>
+      </c>
+      <c r="G215">
+        <v>5.1659999999999998E-2</v>
+      </c>
+      <c r="H215">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="I215">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="J215">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="K215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>24</v>
+      </c>
+      <c r="B216" t="s">
+        <v>51</v>
+      </c>
+      <c r="C216" t="s">
+        <v>52</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>-15.8592</v>
+      </c>
+      <c r="F216">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G216">
+        <v>5.3760000000000002E-2</v>
+      </c>
+      <c r="H216">
+        <v>0.1022</v>
+      </c>
+      <c r="I216">
+        <v>7.6550000000000007E-2</v>
+      </c>
+      <c r="J216">
+        <v>3.984</v>
+      </c>
+      <c r="K216">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>24</v>
+      </c>
+      <c r="B217" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>17.591000000000001</v>
+      </c>
+      <c r="F217">
+        <v>-0.73050000000000004</v>
+      </c>
+      <c r="G217">
+        <v>4.3659999999999997E-2</v>
+      </c>
+      <c r="H217">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="I217">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J217">
+        <v>5.0819999999999999</v>
+      </c>
+      <c r="K217">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>-30.991900000000001</v>
+      </c>
+      <c r="F218">
+        <v>1.5306999999999999</v>
+      </c>
+      <c r="G218">
+        <v>7.6950000000000005E-2</v>
+      </c>
+      <c r="H218">
+        <v>0.2571</v>
+      </c>
+      <c r="I218">
+        <v>0.18959999999999999</v>
+      </c>
+      <c r="J218">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="K218">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>25</v>
+      </c>
+      <c r="B219" t="s">
+        <v>37</v>
+      </c>
+      <c r="C219" t="s">
+        <v>38</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>20.013300000000001</v>
+      </c>
+      <c r="F219">
+        <v>-0.66469999999999996</v>
+      </c>
+      <c r="G219">
+        <v>6.2140000000000001E-2</v>
+      </c>
+      <c r="H219">
+        <v>0.1149</v>
+      </c>
+      <c r="I219">
+        <v>8.4370000000000001E-2</v>
+      </c>
+      <c r="J219">
+        <v>3.7639999999999998</v>
+      </c>
+      <c r="K219">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>25</v>
+      </c>
+      <c r="B220" t="s">
+        <v>76</v>
+      </c>
+      <c r="C220" t="s">
+        <v>38</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>19.550999999999998</v>
+      </c>
+      <c r="F220">
+        <v>-0.74439999999999995</v>
+      </c>
+      <c r="G220">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="H220">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="I220">
+        <v>0.1191</v>
+      </c>
+      <c r="J220">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="K220">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>25</v>
+      </c>
+      <c r="B221" t="s">
+        <v>40</v>
+      </c>
+      <c r="C221" t="s">
+        <v>38</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>1.7793000000000001</v>
+      </c>
+      <c r="F221">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="G221">
+        <v>6.9470000000000004E-2</v>
+      </c>
+      <c r="H221">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="I221">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="J221">
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="K221">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>25</v>
+      </c>
+      <c r="B222" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>1.5448</v>
+      </c>
+      <c r="F222">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="G222">
+        <v>7.0440000000000003E-2</v>
+      </c>
+      <c r="H222">
+        <v>0.3523</v>
+      </c>
+      <c r="I222">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="J222">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="K222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>25</v>
+      </c>
+      <c r="B223" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" t="s">
+        <v>38</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>3.415</v>
+      </c>
+      <c r="F223">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="G223">
+        <v>4.7070000000000001E-2</v>
+      </c>
+      <c r="H223">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="I223">
+        <v>0.1026</v>
+      </c>
+      <c r="J223">
+        <v>4.3150000000000004</v>
+      </c>
+      <c r="K223">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>25</v>
+      </c>
+      <c r="B224" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" t="s">
+        <v>38</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>3.4622999999999999</v>
+      </c>
+      <c r="F224">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="G224">
+        <v>6.7390000000000005E-2</v>
+      </c>
+      <c r="H224">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="I224">
+        <v>8.0060000000000006E-2</v>
+      </c>
+      <c r="J224">
+        <v>3.6110000000000002</v>
+      </c>
+      <c r="K224">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B225" t="s">
+        <v>48</v>
+      </c>
+      <c r="C225" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>2.8729</v>
+      </c>
+      <c r="F225">
+        <v>0.9163</v>
+      </c>
+      <c r="G225">
+        <v>8.0089999999999995E-2</v>
+      </c>
+      <c r="H225">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="I225">
+        <v>0.1138</v>
+      </c>
+      <c r="J225">
+        <v>3.44</v>
+      </c>
+      <c r="K225">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+      <c r="B226" t="s">
+        <v>49</v>
+      </c>
+      <c r="C226" t="s">
+        <v>38</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="F226">
+        <v>1.3472999999999999</v>
+      </c>
+      <c r="G226">
+        <v>1.6420000000000001E-2</v>
+      </c>
+      <c r="H226">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="I226">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="J226">
+        <v>7.0869999999999997</v>
+      </c>
+      <c r="K226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>25</v>
+      </c>
+      <c r="B227" t="s">
+        <v>49</v>
+      </c>
+      <c r="C227" t="s">
+        <v>38</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <v>2.9409000000000001</v>
+      </c>
+      <c r="F227">
+        <v>1.4453</v>
+      </c>
+      <c r="G227">
+        <v>1.184E-2</v>
+      </c>
+      <c r="H227">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="I227">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="J227">
+        <v>8.0609999999999999</v>
+      </c>
+      <c r="K227">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>25</v>
+      </c>
+      <c r="B228" t="s">
+        <v>50</v>
+      </c>
+      <c r="C228" t="s">
+        <v>38</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="F228">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="G228">
+        <v>8.1759999999999999E-2</v>
+      </c>
+      <c r="H228">
+        <v>0.1588</v>
+      </c>
+      <c r="I228">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="J228">
+        <v>3.399</v>
+      </c>
+      <c r="K228">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>25</v>
+      </c>
+      <c r="B229" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" t="s">
+        <v>38</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>2.8862999999999999</v>
+      </c>
+      <c r="F229">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="G229">
+        <v>1.46E-2</v>
+      </c>
+      <c r="H229">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="I229">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="J229">
+        <v>7.391</v>
+      </c>
+      <c r="K229">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>25</v>
+      </c>
+      <c r="B230" t="s">
+        <v>61</v>
+      </c>
+      <c r="C230" t="s">
+        <v>38</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>2.9264000000000001</v>
+      </c>
+      <c r="F230">
+        <v>1.6356999999999999</v>
+      </c>
+      <c r="G230">
+        <v>4.2379999999999996E-3</v>
+      </c>
+      <c r="H230">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="I230">
+        <v>0.3725</v>
+      </c>
+      <c r="J230">
+        <v>11.09</v>
+      </c>
+      <c r="K230">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>25</v>
+      </c>
+      <c r="B231" t="s">
+        <v>74</v>
+      </c>
+      <c r="C231" t="s">
+        <v>38</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>-4.8707000000000003</v>
+      </c>
+      <c r="F231">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="G231">
+        <v>6.4909999999999995E-2</v>
+      </c>
+      <c r="H231">
+        <v>0.2228</v>
+      </c>
+      <c r="I231">
+        <v>0.1673</v>
+      </c>
+      <c r="J231">
+        <v>4.0129999999999999</v>
+      </c>
+      <c r="K231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>25</v>
+      </c>
+      <c r="B232" t="s">
+        <v>75</v>
+      </c>
+      <c r="C232" t="s">
+        <v>38</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>-9.7970000000000006</v>
+      </c>
+      <c r="F232">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="G232">
+        <v>7.2969999999999993E-2</v>
+      </c>
+      <c r="H232">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="I232">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="J232">
+        <v>3.93</v>
+      </c>
+      <c r="K232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>25</v>
+      </c>
+      <c r="B233" t="s">
+        <v>64</v>
+      </c>
+      <c r="C233" t="s">
+        <v>52</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>24.320399999999999</v>
+      </c>
+      <c r="F233">
+        <v>-1.0387</v>
+      </c>
+      <c r="G233">
+        <v>8.0329999999999999E-2</v>
+      </c>
+      <c r="H233">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="I233">
+        <v>9.7479999999999997E-2</v>
+      </c>
+      <c r="J233">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="K233">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>25</v>
+      </c>
+      <c r="B234" t="s">
+        <v>77</v>
+      </c>
+      <c r="C234" t="s">
+        <v>52</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>23.680800000000001</v>
+      </c>
+      <c r="F234">
+        <v>-0.7087</v>
+      </c>
+      <c r="G234">
+        <v>3.2530000000000003E-2</v>
+      </c>
+      <c r="H234">
+        <v>0.124</v>
+      </c>
+      <c r="I234">
+        <v>9.9010000000000001E-2</v>
+      </c>
+      <c r="J234">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="K234">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>25</v>
+      </c>
+      <c r="B235" t="s">
+        <v>54</v>
+      </c>
+      <c r="C235" t="s">
+        <v>55</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>5.4766000000000004</v>
+      </c>
+      <c r="F235">
+        <v>-0.26340000000000002</v>
+      </c>
+      <c r="G235">
+        <v>3.8359999999999998E-2</v>
+      </c>
+      <c r="H235">
+        <v>0.1169</v>
+      </c>
+      <c r="I235">
+        <v>9.1639999999999999E-2</v>
+      </c>
+      <c r="J235">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="K235">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>25</v>
+      </c>
+      <c r="B236" t="s">
+        <v>57</v>
+      </c>
+      <c r="C236" t="s">
+        <v>55</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>1.49912</v>
+      </c>
+      <c r="F236">
+        <v>0.11451</v>
+      </c>
+      <c r="G236">
+        <v>6.8159999999999998E-2</v>
+      </c>
+      <c r="H236">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="I236">
+        <v>6.2420000000000003E-2</v>
+      </c>
+      <c r="J236">
+        <v>3.53</v>
+      </c>
+      <c r="K236">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" t="s">
+        <v>78</v>
+      </c>
+      <c r="C237" t="s">
+        <v>55</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>4.3006000000000002</v>
+      </c>
+      <c r="F237">
+        <v>-0.37030000000000002</v>
+      </c>
+      <c r="G237">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="H237">
+        <v>8.294E-2</v>
+      </c>
+      <c r="I237">
+        <v>5.6739999999999999E-2</v>
+      </c>
+      <c r="J237">
+        <v>3.165</v>
+      </c>
+      <c r="K237">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238" t="s">
+        <v>60</v>
+      </c>
+      <c r="C238" t="s">
+        <v>55</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>6.6623000000000001</v>
+      </c>
+      <c r="F238">
+        <v>-0.9032</v>
+      </c>
+      <c r="G238">
+        <v>8.7319999999999995E-2</v>
+      </c>
+      <c r="H238">
+        <v>7.9030000000000003E-2</v>
+      </c>
+      <c r="I238">
+        <v>5.3440000000000001E-2</v>
+      </c>
+      <c r="J238">
+        <v>3.089</v>
+      </c>
+      <c r="K238">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/regression_summaries.xlsx
+++ b/regression_summaries.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\shinycrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E273F-A917-4B4A-9768-E94C0A06D426}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62C15F9-8456-4FED-BD86-533F591A4962}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="270" windowWidth="19440" windowHeight="15000" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
+    <workbookView xWindow="-19320" yWindow="270" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="B90" sheetId="1" r:id="rId1"/>
+    <sheet name="E98" sheetId="2" r:id="rId2"/>
+    <sheet name="T38" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="101">
   <si>
     <t>Independent</t>
   </si>
@@ -270,6 +272,72 @@
   </si>
   <si>
     <t>ChasCity_MeanAnnualDailyPrecip</t>
+  </si>
+  <si>
+    <t>E98_JuvCPUE</t>
+  </si>
+  <si>
+    <t>E98_SubAdultCPUE</t>
+  </si>
+  <si>
+    <t>E98_AdultCPUE</t>
+  </si>
+  <si>
+    <t>E98_CPUE</t>
+  </si>
+  <si>
+    <t>AshleyLandingsCPUE</t>
+  </si>
+  <si>
+    <t>ENDED WITH SALINITY</t>
+  </si>
+  <si>
+    <t>T38_JuvCPUE</t>
+  </si>
+  <si>
+    <t>CustomsHouse_MeanAnnualTemp_WaterYr</t>
+  </si>
+  <si>
+    <t>ENSO_FM</t>
+  </si>
+  <si>
+    <t>ENSO_MA</t>
+  </si>
+  <si>
+    <t>ENSO_AM</t>
+  </si>
+  <si>
+    <t>ENSO_MJ</t>
+  </si>
+  <si>
+    <t>ENSO_JJ</t>
+  </si>
+  <si>
+    <t>ENSO_JA</t>
+  </si>
+  <si>
+    <t>ENSO</t>
+  </si>
+  <si>
+    <t>ONI_DJF</t>
+  </si>
+  <si>
+    <t>ONI_JFM</t>
+  </si>
+  <si>
+    <t>ONI_FMA</t>
+  </si>
+  <si>
+    <t>ONI_MAM</t>
+  </si>
+  <si>
+    <t>ONI_AMJ</t>
+  </si>
+  <si>
+    <t>ONI_MJJ</t>
+  </si>
+  <si>
+    <t>ONI_JJA</t>
   </si>
 </sst>
 </file>
@@ -626,9 +694,9 @@
   </sheetPr>
   <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8974,4 +9042,2449 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4229D608-D66C-4CEF-BCC6-C7EEE69A9998}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.16807</v>
+      </c>
+      <c r="F2">
+        <v>0.23768</v>
+      </c>
+      <c r="G2">
+        <v>3.044E-12</v>
+      </c>
+      <c r="H2">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="J2">
+        <v>267.10000000000002</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-1.4095200000000001</v>
+      </c>
+      <c r="F3">
+        <v>9.0986999999999998E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.77E-8</v>
+      </c>
+      <c r="H3">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="J3">
+        <v>91.44</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-0.19145000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.16273000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.8089999999999999E-13</v>
+      </c>
+      <c r="H4">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="J4">
+        <v>371.8</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-4.0309999999999997</v>
+      </c>
+      <c r="F5">
+        <v>9.7520000000000001E-5</v>
+      </c>
+      <c r="G5">
+        <v>9.0969999999999995E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.1033</v>
+      </c>
+      <c r="J5">
+        <v>3.19</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-14.536</v>
+      </c>
+      <c r="F6">
+        <v>6.8879999999999999</v>
+      </c>
+      <c r="G6">
+        <v>7.9339999999999994E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.218</v>
+      </c>
+      <c r="I6">
+        <v>0.1578</v>
+      </c>
+      <c r="J6">
+        <v>3.6240000000000001</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-22.187999999999999</v>
+      </c>
+      <c r="F7">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="G7">
+        <v>7.1679999999999994E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.2283</v>
+      </c>
+      <c r="I7">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="J7">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-22.187999999999999</v>
+      </c>
+      <c r="F8">
+        <v>8.81</v>
+      </c>
+      <c r="G8">
+        <v>7.1679999999999994E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.2283</v>
+      </c>
+      <c r="I8">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="J8">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D18C0B-7C56-4AD9-89EB-B076C8DB8250}">
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>11.6433</v>
+      </c>
+      <c r="F2">
+        <v>-0.40189999999999998</v>
+      </c>
+      <c r="G2">
+        <v>6.3400000000000001E-3</v>
+      </c>
+      <c r="H2">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="J2">
+        <v>8.6150000000000002</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>12.599299999999999</v>
+      </c>
+      <c r="F3">
+        <v>-0.44040000000000001</v>
+      </c>
+      <c r="G3">
+        <v>2.8670000000000002E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="J3">
+        <v>10.61</v>
+      </c>
+      <c r="K3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3.4923700000000002</v>
+      </c>
+      <c r="F4">
+        <v>-0.16907</v>
+      </c>
+      <c r="G4">
+        <v>1.89E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="J4">
+        <v>7.8209999999999997</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>11.9064</v>
+      </c>
+      <c r="F5">
+        <v>-0.4667</v>
+      </c>
+      <c r="G5">
+        <v>5.189E-3</v>
+      </c>
+      <c r="H5">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="J5">
+        <v>9.968</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="G6">
+        <v>6.8419999999999995E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.29430000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="J6">
+        <v>4.17</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1.0542</v>
+      </c>
+      <c r="F7">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="G7">
+        <v>1.4189999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="J7">
+        <v>9.1950000000000003</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.0407</v>
+      </c>
+      <c r="F8">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="G8">
+        <v>6.1510000000000002E-3</v>
+      </c>
+      <c r="H8">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="J8">
+        <v>12.65</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1.0766</v>
+      </c>
+      <c r="F9">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="G9">
+        <v>3.175E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="J9">
+        <v>6.7460000000000004</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="G10">
+        <v>2.5489999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="J10">
+        <v>6.8780000000000001</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1.0804</v>
+      </c>
+      <c r="F11">
+        <v>0.48520000000000002</v>
+      </c>
+      <c r="G11">
+        <v>1.6619999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="J11">
+        <v>8.6150000000000002</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="G12">
+        <v>6.9550000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.2923</v>
+      </c>
+      <c r="I12">
+        <v>0.2215</v>
+      </c>
+      <c r="J12">
+        <v>4.13</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1.044</v>
+      </c>
+      <c r="F13">
+        <v>0.33810000000000001</v>
+      </c>
+      <c r="G13">
+        <v>9.1560000000000002E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.2838</v>
+      </c>
+      <c r="I13">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="J13">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1.6136999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="G14">
+        <v>3.026E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.2475</v>
+      </c>
+      <c r="J14">
+        <v>10.54</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1.591</v>
+      </c>
+      <c r="F15">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="G15">
+        <v>2.0790000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="J15">
+        <v>11.6</v>
+      </c>
+      <c r="K15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1.5608</v>
+      </c>
+      <c r="F16">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="G16">
+        <v>1.165E-3</v>
+      </c>
+      <c r="H16">
+        <v>0.3281</v>
+      </c>
+      <c r="I16">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="J16">
+        <v>13.18</v>
+      </c>
+      <c r="K16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1.5847</v>
+      </c>
+      <c r="F17">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="G17">
+        <v>3.1620000000000002E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.1656</v>
+      </c>
+      <c r="I17">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="J17">
+        <v>5.16</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.6327</v>
+      </c>
+      <c r="F18">
+        <v>0.5343</v>
+      </c>
+      <c r="G18">
+        <v>3.2039999999999998E-3</v>
+      </c>
+      <c r="H18">
+        <v>0.2626</v>
+      </c>
+      <c r="I18">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="J18">
+        <v>10.33</v>
+      </c>
+      <c r="K18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1.6191</v>
+      </c>
+      <c r="F19">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="G19">
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="J19">
+        <v>6.3259999999999996</v>
+      </c>
+      <c r="K19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1.6327</v>
+      </c>
+      <c r="F20">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="G20">
+        <v>2.853E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="J20">
+        <v>5.3120000000000003</v>
+      </c>
+      <c r="K20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1.6134999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="G21">
+        <v>7.3410000000000003E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.11</v>
+      </c>
+      <c r="I21">
+        <v>7.8189999999999996E-2</v>
+      </c>
+      <c r="J21">
+        <v>3.46</v>
+      </c>
+      <c r="K21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1.4144000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="G22">
+        <v>3.3519999999999999E-3</v>
+      </c>
+      <c r="H22">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="J22">
+        <v>11.41</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1.3432999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="G23">
+        <v>4.7449999999999999E-4</v>
+      </c>
+      <c r="H23">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="I23">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="J23">
+        <v>18.12</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1.2444</v>
+      </c>
+      <c r="F24">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G24">
+        <v>2.8559999999999999E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.25190000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.20798</v>
+      </c>
+      <c r="J24">
+        <v>5.7240000000000002</v>
+      </c>
+      <c r="K24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1.2952999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="G25">
+        <v>6.9090000000000004E-4</v>
+      </c>
+      <c r="H25">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="I25">
+        <v>0.47220000000000001</v>
+      </c>
+      <c r="J25">
+        <v>17.11</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1.2474000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.5252</v>
+      </c>
+      <c r="G26">
+        <v>3.9150000000000001E-3</v>
+      </c>
+      <c r="H26">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="J26">
+        <v>11.13</v>
+      </c>
+      <c r="K26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1.4151</v>
+      </c>
+      <c r="F27">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="G27">
+        <v>1.337E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.29480000000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="J27">
+        <v>7.5229999999999997</v>
+      </c>
+      <c r="K27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1.3441000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="G28">
+        <v>5.9829999999999996E-4</v>
+      </c>
+      <c r="H28">
+        <v>0.48930000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.46089999999999998</v>
+      </c>
+      <c r="J28">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="K28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1.2521</v>
+      </c>
+      <c r="F29">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="G29">
+        <v>3.8859999999999999E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.2276</v>
+      </c>
+      <c r="I29">
+        <v>0.1822</v>
+      </c>
+      <c r="J29">
+        <v>5.0110000000000001</v>
+      </c>
+      <c r="K29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1.2958000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.58289999999999997</v>
+      </c>
+      <c r="G30">
+        <v>4.9719999999999999E-3</v>
+      </c>
+      <c r="H30">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="J30">
+        <v>10.4</v>
+      </c>
+      <c r="K30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1.2479</v>
+      </c>
+      <c r="F31">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="G31">
+        <v>3.6110000000000001E-3</v>
+      </c>
+      <c r="H31">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I31">
+        <v>0.36570000000000003</v>
+      </c>
+      <c r="J31">
+        <v>11.38</v>
+      </c>
+      <c r="K31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>4.2662000000000004</v>
+      </c>
+      <c r="F32">
+        <v>-0.10782</v>
+      </c>
+      <c r="G32">
+        <v>9.0529999999999999E-2</v>
+      </c>
+      <c r="H32">
+        <v>7.5480000000000005E-2</v>
+      </c>
+      <c r="I32">
+        <v>5.049E-2</v>
+      </c>
+      <c r="J32">
+        <v>3.0209999999999999</v>
+      </c>
+      <c r="K32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>4.4584999999999999</v>
+      </c>
+      <c r="F33">
+        <v>-0.1129</v>
+      </c>
+      <c r="G33">
+        <v>9.7809999999999994E-2</v>
+      </c>
+      <c r="H33">
+        <v>7.6359999999999997E-2</v>
+      </c>
+      <c r="I33">
+        <v>4.9970000000000001E-2</v>
+      </c>
+      <c r="J33">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="K33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>3.2880400000000001</v>
+      </c>
+      <c r="F34">
+        <v>-0.10861999999999999</v>
+      </c>
+      <c r="G34">
+        <v>4.3049999999999998E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.2989</v>
+      </c>
+      <c r="I34">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="J34">
+        <v>5.117</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>5.55783</v>
+      </c>
+      <c r="F35">
+        <v>-0.19811999999999999</v>
+      </c>
+      <c r="G35">
+        <v>4.845E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.3664</v>
+      </c>
+      <c r="I35">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J35">
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>-9.0135000000000005</v>
+      </c>
+      <c r="F36">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="G36">
+        <v>3.5839999999999997E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.2117</v>
+      </c>
+      <c r="I36">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="J36">
+        <v>5.1020000000000003</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>12.7202</v>
+      </c>
+      <c r="F37">
+        <v>-0.54449999999999998</v>
+      </c>
+      <c r="G37">
+        <v>3.6490000000000002E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.192</v>
+      </c>
+      <c r="I37">
+        <v>0.1535</v>
+      </c>
+      <c r="J37">
+        <v>4.9909999999999997</v>
+      </c>
+      <c r="K37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>11.692</v>
+      </c>
+      <c r="F38">
+        <v>-0.50209999999999999</v>
+      </c>
+      <c r="G38">
+        <v>5.713E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.1343</v>
+      </c>
+      <c r="J38">
+        <v>4.101</v>
+      </c>
+      <c r="K38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>8.8087999999999997</v>
+      </c>
+      <c r="F39">
+        <v>-0.35830000000000001</v>
+      </c>
+      <c r="G39">
+        <v>1.311E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="I39">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="J39">
+        <v>8.4619999999999997</v>
+      </c>
+      <c r="K39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0.83028000000000002</v>
+      </c>
+      <c r="F40">
+        <v>7.0949999999999999E-2</v>
+      </c>
+      <c r="G40">
+        <v>3.6510000000000001E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.1129</v>
+      </c>
+      <c r="I40">
+        <v>8.8910000000000003E-2</v>
+      </c>
+      <c r="J40">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="K40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1.6264000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="G41">
+        <v>2.545E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.1278</v>
+      </c>
+      <c r="I41">
+        <v>0.1042</v>
+      </c>
+      <c r="J41">
+        <v>5.4219999999999997</v>
+      </c>
+      <c r="K41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1.6294999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="G42">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.1188</v>
+      </c>
+      <c r="I42">
+        <v>9.4990000000000005E-2</v>
+      </c>
+      <c r="J42">
+        <v>4.9889999999999999</v>
+      </c>
+      <c r="K42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1.6313</v>
+      </c>
+      <c r="F43">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="G43">
+        <v>2.0049999999999998E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.1144</v>
+      </c>
+      <c r="J43">
+        <v>5.907</v>
+      </c>
+      <c r="K43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1.621</v>
+      </c>
+      <c r="F44">
+        <v>0.47660000000000002</v>
+      </c>
+      <c r="G44">
+        <v>7.4050000000000001E-3</v>
+      </c>
+      <c r="H44">
+        <v>0.17829999999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="J44">
+        <v>8.0310000000000006</v>
+      </c>
+      <c r="K44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1.6264000000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="G45">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.1462</v>
+      </c>
+      <c r="I45">
+        <v>0.1231</v>
+      </c>
+      <c r="J45">
+        <v>6.335</v>
+      </c>
+      <c r="K45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1.6424000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.3342</v>
+      </c>
+      <c r="G46">
+        <v>6.6739999999999994E-2</v>
+      </c>
+      <c r="H46">
+        <v>9.0329999999999994E-2</v>
+      </c>
+      <c r="I46">
+        <v>6.5060000000000007E-2</v>
+      </c>
+      <c r="J46">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="K46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1.6358999999999999</v>
+      </c>
+      <c r="F47">
+        <v>0.29609999999999997</v>
+      </c>
+      <c r="G47">
+        <v>9.9790000000000004E-2</v>
+      </c>
+      <c r="H47">
+        <v>7.152E-2</v>
+      </c>
+      <c r="I47">
+        <v>4.6420000000000003E-2</v>
+      </c>
+      <c r="J47">
+        <v>2.85</v>
+      </c>
+      <c r="K47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1.6425000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="G48">
+        <v>7.9349999999999993E-3</v>
+      </c>
+      <c r="H48">
+        <v>0.18</v>
+      </c>
+      <c r="I48">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="J48">
+        <v>7.9029999999999996</v>
+      </c>
+      <c r="K48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1.6426000000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.43619999999999998</v>
+      </c>
+      <c r="G49">
+        <v>1.4460000000000001E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.155</v>
+      </c>
+      <c r="I49">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="J49">
+        <v>6.6050000000000004</v>
+      </c>
+      <c r="K49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1.6423000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="G50">
+        <v>2.9250000000000002E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="I50">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J50">
+        <v>5.1559999999999997</v>
+      </c>
+      <c r="K50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1.6426000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.49009999999999998</v>
+      </c>
+      <c r="G51">
+        <v>5.6100000000000004E-3</v>
+      </c>
+      <c r="H51">
+        <v>0.1943</v>
+      </c>
+      <c r="I51">
+        <v>0.1719</v>
+      </c>
+      <c r="J51">
+        <v>8.6809999999999992</v>
+      </c>
+      <c r="K51">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1.645</v>
+      </c>
+      <c r="F52">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="G52">
+        <v>3.1050000000000001E-3</v>
+      </c>
+      <c r="H52">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="I52">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="J52">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="K52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1.6412</v>
+      </c>
+      <c r="F53">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G53">
+        <v>1.1129999999999999E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I53">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="J53">
+        <v>7.1639999999999997</v>
+      </c>
+      <c r="K53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1.6367</v>
+      </c>
+      <c r="F54">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="G54">
+        <v>1.5689999999999999E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="I54">
+        <v>0.128</v>
+      </c>
+      <c r="J54">
+        <v>6.4320000000000004</v>
+      </c>
+      <c r="K54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1.6324000000000001</v>
+      </c>
+      <c r="F55">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="G55">
+        <v>4.9420000000000002E-3</v>
+      </c>
+      <c r="H55">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.1772</v>
+      </c>
+      <c r="J55">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="K55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1.6244000000000001</v>
+      </c>
+      <c r="F56">
+        <v>0.3543</v>
+      </c>
+      <c r="G56">
+        <v>2.9309999999999999E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.122</v>
+      </c>
+      <c r="I56">
+        <v>9.8239999999999994E-2</v>
+      </c>
+      <c r="J56">
+        <v>5.14</v>
+      </c>
+      <c r="K56">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1.6201000000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="G57">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="H57">
+        <v>9.6549999999999997E-2</v>
+      </c>
+      <c r="I57">
+        <v>7.213E-2</v>
+      </c>
+      <c r="J57">
+        <v>3.9540000000000002</v>
+      </c>
+      <c r="K57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1.6136999999999999</v>
+      </c>
+      <c r="F58">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="G58">
+        <v>6.2280000000000002E-2</v>
+      </c>
+      <c r="H58">
+        <v>9.0810000000000002E-2</v>
+      </c>
+      <c r="I58">
+        <v>6.6239999999999993E-2</v>
+      </c>
+      <c r="J58">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="K58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1.5999000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="G59">
+        <v>4.8090000000000001E-2</v>
+      </c>
+      <c r="H59">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="I59">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="J59">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="K59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1.591</v>
+      </c>
+      <c r="F60">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="G60">
+        <v>9.9010000000000001E-3</v>
+      </c>
+      <c r="H60">
+        <v>0.1666</v>
+      </c>
+      <c r="I60">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J60">
+        <v>7.3949999999999996</v>
+      </c>
+      <c r="K60">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1.5958000000000001</v>
+      </c>
+      <c r="F61">
+        <v>0.8014</v>
+      </c>
+      <c r="G61">
+        <v>7.5880000000000001E-3</v>
+      </c>
+      <c r="H61">
+        <v>0.1774</v>
+      </c>
+      <c r="I61">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="J61">
+        <v>7.9770000000000003</v>
+      </c>
+      <c r="K61">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1.6176999999999999</v>
+      </c>
+      <c r="F62">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="G62">
+        <v>1.5679999999999999E-2</v>
+      </c>
+      <c r="H62">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="I62">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="J62">
+        <v>6.4160000000000004</v>
+      </c>
+      <c r="K62">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/regression_summaries.xlsx
+++ b/regression_summaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\shinycrab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sczwa\Desktop\shinycrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62C15F9-8456-4FED-BD86-533F591A4962}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA81CFD0-0D4D-4DC4-AFA1-7DAF17CC7A35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="270" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
   </bookViews>
   <sheets>
     <sheet name="B90" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="108">
   <si>
     <t>Independent</t>
   </si>
@@ -339,6 +339,27 @@
   <si>
     <t>ONI_JJA</t>
   </si>
+  <si>
+    <t>ONI_JAS</t>
+  </si>
+  <si>
+    <t>ONI_SON</t>
+  </si>
+  <si>
+    <t>ONI_OND</t>
+  </si>
+  <si>
+    <t>ONI_NDJ</t>
+  </si>
+  <si>
+    <t>ONI</t>
+  </si>
+  <si>
+    <t>MeanAshleyRaw</t>
+  </si>
+  <si>
+    <t>MeanWadnoCSI</t>
+  </si>
 </sst>
 </file>
 
@@ -373,8 +394,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9352,11 +9374,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D18C0B-7C56-4AD9-89EB-B076C8DB8250}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10908,6 +10930,9 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
@@ -10940,6 +10965,9 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
       <c r="B46" t="s">
         <v>89</v>
       </c>
@@ -10972,6 +11000,9 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
       <c r="B47" t="s">
         <v>90</v>
       </c>
@@ -11004,6 +11035,9 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
       <c r="B48" t="s">
         <v>90</v>
       </c>
@@ -11035,7 +11069,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
       <c r="B49" t="s">
         <v>91</v>
       </c>
@@ -11067,7 +11104,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
       <c r="B50" t="s">
         <v>92</v>
       </c>
@@ -11099,7 +11139,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
       <c r="B51" t="s">
         <v>69</v>
       </c>
@@ -11131,7 +11174,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
@@ -11163,7 +11209,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
       <c r="B53" t="s">
         <v>71</v>
       </c>
@@ -11195,7 +11244,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
       <c r="B54" t="s">
         <v>72</v>
       </c>
@@ -11227,7 +11279,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
       <c r="B55" t="s">
         <v>93</v>
       </c>
@@ -11259,7 +11314,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
       <c r="B56" t="s">
         <v>94</v>
       </c>
@@ -11291,7 +11349,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
       <c r="B57" t="s">
         <v>95</v>
       </c>
@@ -11323,7 +11384,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
       <c r="B58" t="s">
         <v>96</v>
       </c>
@@ -11355,7 +11419,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
       <c r="B59" t="s">
         <v>97</v>
       </c>
@@ -11387,7 +11454,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
       <c r="B60" t="s">
         <v>98</v>
       </c>
@@ -11419,7 +11489,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
       <c r="B61" t="s">
         <v>99</v>
       </c>
@@ -11451,7 +11524,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
       <c r="B62" t="s">
         <v>100</v>
       </c>
@@ -11481,6 +11557,831 @@
       </c>
       <c r="K62">
         <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1.6258999999999999</v>
+      </c>
+      <c r="F63">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="G63">
+        <v>2.8549999999999999E-2</v>
+      </c>
+      <c r="H63">
+        <v>0.1231</v>
+      </c>
+      <c r="I63">
+        <v>9.9360000000000004E-2</v>
+      </c>
+      <c r="J63">
+        <v>5.1920000000000002</v>
+      </c>
+      <c r="K63">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1.6257999999999999</v>
+      </c>
+      <c r="F64">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="G64">
+        <v>3.347E-2</v>
+      </c>
+      <c r="H64">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="I64">
+        <v>9.2609999999999998E-2</v>
+      </c>
+      <c r="J64">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="K64">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1.6264000000000001</v>
+      </c>
+      <c r="F65">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="G65">
+        <v>1.941E-2</v>
+      </c>
+      <c r="H65">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="I65">
+        <v>0.1157</v>
+      </c>
+      <c r="J65">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="K65">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1.6258999999999999</v>
+      </c>
+      <c r="F66">
+        <v>0.39040000000000002</v>
+      </c>
+      <c r="G66">
+        <v>1.329E-2</v>
+      </c>
+      <c r="H66">
+        <v>0.1547</v>
+      </c>
+      <c r="I66">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="J66">
+        <v>6.7640000000000002</v>
+      </c>
+      <c r="K66">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1.6251</v>
+      </c>
+      <c r="F67">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="G67">
+        <v>1.8579999999999999E-2</v>
+      </c>
+      <c r="H67">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="I67">
+        <v>0.1176</v>
+      </c>
+      <c r="J67">
+        <v>6.0640000000000001</v>
+      </c>
+      <c r="K67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1.6025</v>
+      </c>
+      <c r="F68">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="G68">
+        <v>4.8450000000000003E-3</v>
+      </c>
+      <c r="H68">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="I68">
+        <v>0.1736</v>
+      </c>
+      <c r="J68">
+        <v>8.984</v>
+      </c>
+      <c r="K68">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>7.7527999999999997</v>
+      </c>
+      <c r="F69">
+        <v>-0.26732</v>
+      </c>
+      <c r="G69">
+        <v>3.9300000000000003E-3</v>
+      </c>
+      <c r="H69">
+        <v>0.2455</v>
+      </c>
+      <c r="I69">
+        <v>0.22040000000000001</v>
+      </c>
+      <c r="J69">
+        <v>9.7629999999999999</v>
+      </c>
+      <c r="K69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1.8997E-3</v>
+      </c>
+      <c r="H70">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="I70">
+        <v>0.25469999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>2.552E-3</v>
+      </c>
+      <c r="H71">
+        <v>0.27329999999999999</v>
+      </c>
+      <c r="I71">
+        <v>0.2482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>2.3709999999999998E-2</v>
+      </c>
+      <c r="H72">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="I72">
+        <v>0.32879999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>3.9630000000000004E-3</v>
+      </c>
+      <c r="H73">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="I73">
+        <v>0.32750000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>3.9789999999999999E-3</v>
+      </c>
+      <c r="H74">
+        <v>0.3609</v>
+      </c>
+      <c r="I74">
+        <v>0.32719999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>1.256E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.29920000000000002</v>
+      </c>
+      <c r="I75">
+        <v>0.26029999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>9.375E-2</v>
+      </c>
+      <c r="H76">
+        <v>0.28060000000000002</v>
+      </c>
+      <c r="I76">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="H77">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="I77">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1.408E-3</v>
+      </c>
+      <c r="H78">
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="I78">
+        <v>0.28489999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>6.3149999999999998E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.1221</v>
+      </c>
+      <c r="I79">
+        <v>8.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>7.6420000000000004E-4</v>
+      </c>
+      <c r="H80">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="I80">
+        <v>0.32340000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>9.5060000000000001E-4</v>
+      </c>
+      <c r="H81">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="I81">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>4.548E-2</v>
+      </c>
+      <c r="H82">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="I82">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>3.3760000000000001E-3</v>
+      </c>
+      <c r="H83">
+        <v>0.2601</v>
+      </c>
+      <c r="I83">
+        <v>0.2346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="H84">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="I84">
+        <v>0.1537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="H85">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="I85">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="H86">
+        <v>0.40610000000000002</v>
+      </c>
+      <c r="I86">
+        <v>0.37309999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>6.796E-3</v>
+      </c>
+      <c r="H87">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="I87">
+        <v>0.32029999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1.521E-2</v>
+      </c>
+      <c r="H88">
+        <v>0.28560000000000002</v>
+      </c>
+      <c r="I88">
+        <v>0.24590000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="H89">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="I89">
+        <v>0.2142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>7.9560000000000006E-2</v>
+      </c>
+      <c r="H90">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="I90">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>3.261E-2</v>
+      </c>
+      <c r="H91">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="I91">
+        <v>0.2356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>5.8790000000000002E-2</v>
+      </c>
+      <c r="H92">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="I92">
+        <v>0.26889999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1.4489999999999999E-2</v>
+      </c>
+      <c r="H93">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="I93">
+        <v>0.33160000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>7.1079999999999997E-3</v>
+      </c>
+      <c r="H94">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="I94">
+        <v>0.16619999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/regression_summaries.xlsx
+++ b/regression_summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sczwa\Desktop\shinycrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99182657-162D-4B03-8851-9D8F0CA39C11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D8219-FA38-4534-8869-291720D131C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
   </bookViews>
@@ -9389,7 +9389,7 @@
   <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>

--- a/regression_summaries.xlsx
+++ b/regression_summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sczwa\Desktop\shinycrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4102D795-0940-4803-9172-A03D97CA6D7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24D3E6-D7FA-423E-A9A5-2972410B4BBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4095" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="7" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
+    <workbookView xWindow="20370" yWindow="-4095" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
   </bookViews>
   <sheets>
     <sheet name="E98" sheetId="2" r:id="rId1"/>
@@ -10128,9 +10128,9 @@
   </sheetPr>
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B4:H20"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10247,7 +10247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -10282,39 +10282,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-91.662999999999997</v>
+        <v>6.28</v>
       </c>
       <c r="F5">
-        <v>4.6040000000000001</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="G5">
-        <v>6.4269999999999994E-2</v>
+        <v>1.748E-3</v>
       </c>
       <c r="H5">
-        <v>0.2777</v>
+        <v>0.64129999999999998</v>
       </c>
       <c r="I5">
-        <v>0.21199999999999999</v>
+        <v>0.60540000000000005</v>
       </c>
       <c r="J5">
-        <v>4.2290000000000001</v>
+        <v>17.88</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -10597,47 +10597,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>-35.856999999999999</v>
+        <v>5.9633000000000003</v>
       </c>
       <c r="F14">
-        <v>2.2240000000000002</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="G14">
-        <v>7.2859999999999994E-2</v>
+        <v>6.8900000000000003E-3</v>
       </c>
       <c r="H14">
-        <v>8.9020000000000002E-2</v>
+        <v>0.57430000000000003</v>
       </c>
       <c r="I14">
-        <v>6.2990000000000004E-2</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="J14">
-        <v>3.42</v>
+        <v>12.14</v>
       </c>
       <c r="K14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -10646,25 +10646,25 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>6.28</v>
+        <v>8.8879999999999999</v>
       </c>
       <c r="F15">
-        <v>3.0150000000000001</v>
+        <v>3.899</v>
       </c>
       <c r="G15">
-        <v>1.748E-3</v>
+        <v>1.1509999999999999E-2</v>
       </c>
       <c r="H15">
-        <v>0.64129999999999998</v>
+        <v>0.32050000000000001</v>
       </c>
       <c r="I15">
-        <v>0.60540000000000005</v>
+        <v>0.28060000000000002</v>
       </c>
       <c r="J15">
-        <v>17.88</v>
+        <v>8.02</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10702,7 +10702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -10772,12 +10772,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -10786,28 +10786,28 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>5.9633000000000003</v>
+        <v>6.2613000000000003</v>
       </c>
       <c r="F19">
-        <v>2.9809999999999999</v>
+        <v>2.2818999999999998</v>
       </c>
       <c r="G19">
-        <v>6.8900000000000003E-3</v>
+        <v>4.4880000000000003E-2</v>
       </c>
       <c r="H19">
-        <v>0.57430000000000003</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="I19">
-        <v>0.52700000000000002</v>
+        <v>0.27879999999999999</v>
       </c>
       <c r="J19">
-        <v>12.14</v>
+        <v>5.2519999999999998</v>
       </c>
       <c r="K19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -11402,47 +11402,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>8.8879999999999999</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="F37">
-        <v>3.899</v>
+        <v>2.298</v>
       </c>
       <c r="G37">
-        <v>1.1509999999999999E-2</v>
+        <v>6.4509999999999998E-2</v>
       </c>
       <c r="H37">
-        <v>0.32050000000000001</v>
+        <v>0.3301</v>
       </c>
       <c r="I37">
-        <v>0.28060000000000002</v>
+        <v>0.25559999999999999</v>
       </c>
       <c r="J37">
-        <v>8.02</v>
+        <v>4.4340000000000002</v>
       </c>
       <c r="K37">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -11451,28 +11451,28 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>6.2613000000000003</v>
+        <v>8.7409999999999997</v>
       </c>
       <c r="F38">
-        <v>2.2818999999999998</v>
+        <v>3.427</v>
       </c>
       <c r="G38">
-        <v>4.4880000000000003E-2</v>
+        <v>1.453E-2</v>
       </c>
       <c r="H38">
-        <v>0.34439999999999998</v>
+        <v>0.28889999999999999</v>
       </c>
       <c r="I38">
-        <v>0.27879999999999999</v>
+        <v>0.24940000000000001</v>
       </c>
       <c r="J38">
-        <v>5.2519999999999998</v>
+        <v>7.3109999999999999</v>
       </c>
       <c r="K38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -11682,39 +11682,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>6.1440000000000001</v>
+        <v>8.8840000000000003</v>
       </c>
       <c r="F45">
-        <v>2.298</v>
+        <v>3.516</v>
       </c>
       <c r="G45">
-        <v>6.4509999999999998E-2</v>
+        <v>2.0959999999999999E-2</v>
       </c>
       <c r="H45">
-        <v>0.3301</v>
+        <v>0.27579999999999999</v>
       </c>
       <c r="I45">
-        <v>0.25559999999999999</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="J45">
-        <v>4.4340000000000002</v>
+        <v>6.4729999999999999</v>
       </c>
       <c r="K45">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11752,39 +11752,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>8.7409999999999997</v>
+        <v>-91.662999999999997</v>
       </c>
       <c r="F47">
-        <v>3.427</v>
+        <v>4.6040000000000001</v>
       </c>
       <c r="G47">
-        <v>1.453E-2</v>
+        <v>6.4269999999999994E-2</v>
       </c>
       <c r="H47">
-        <v>0.28889999999999999</v>
+        <v>0.2777</v>
       </c>
       <c r="I47">
-        <v>0.24940000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="J47">
-        <v>7.3109999999999999</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="K47">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11892,39 +11892,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>8.8840000000000003</v>
+        <v>17.6508</v>
       </c>
       <c r="F51">
-        <v>3.516</v>
+        <v>-0.77590000000000003</v>
       </c>
       <c r="G51">
-        <v>2.0959999999999999E-2</v>
+        <v>7.5660000000000005E-2</v>
       </c>
       <c r="H51">
-        <v>0.27579999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I51">
-        <v>0.23319999999999999</v>
+        <v>0.2102</v>
       </c>
       <c r="J51">
-        <v>6.4729999999999999</v>
+        <v>3.927</v>
       </c>
       <c r="K51">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12067,12 +12067,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
@@ -12081,25 +12081,25 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <v>17.6508</v>
+        <v>83923</v>
       </c>
       <c r="F56">
-        <v>-0.77590000000000003</v>
+        <v>3.3450000000000002</v>
       </c>
       <c r="G56">
-        <v>7.5660000000000005E-2</v>
+        <v>3.5970000000000002E-2</v>
       </c>
       <c r="H56">
-        <v>0.28199999999999997</v>
+        <v>0.24679999999999999</v>
       </c>
       <c r="I56">
-        <v>0.2102</v>
+        <v>0.19969999999999999</v>
       </c>
       <c r="J56">
-        <v>3.927</v>
+        <v>5.242</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12137,12 +12137,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
         <v>38</v>
@@ -12151,22 +12151,22 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <v>83923</v>
+        <v>8.84</v>
       </c>
       <c r="F58">
-        <v>3.3450000000000002</v>
+        <v>3.3860000000000001</v>
       </c>
       <c r="G58">
-        <v>3.5970000000000002E-2</v>
+        <v>3.8420000000000003E-2</v>
       </c>
       <c r="H58">
-        <v>0.24679999999999999</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="I58">
-        <v>0.19969999999999999</v>
+        <v>0.19389999999999999</v>
       </c>
       <c r="J58">
-        <v>5.242</v>
+        <v>5.09</v>
       </c>
       <c r="K58">
         <v>16</v>
@@ -12207,42 +12207,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
         <v>38</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>8.84</v>
+        <v>8.6539999999999999</v>
       </c>
       <c r="F60">
-        <v>3.3860000000000001</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="G60">
-        <v>3.8420000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H60">
-        <v>0.24129999999999999</v>
+        <v>0.2142</v>
       </c>
       <c r="I60">
-        <v>0.19389999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J60">
-        <v>5.09</v>
+        <v>4.6340000000000003</v>
       </c>
       <c r="K60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -12417,39 +12417,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
         <v>38</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>8.6539999999999999</v>
+        <v>9.5139999999999993</v>
       </c>
       <c r="F66">
-        <v>3.1080000000000001</v>
+        <v>2.794</v>
       </c>
       <c r="G66">
-        <v>4.5999999999999999E-2</v>
+        <v>1.555E-2</v>
       </c>
       <c r="H66">
-        <v>0.2142</v>
+        <v>0.19159999999999999</v>
       </c>
       <c r="I66">
-        <v>0.16800000000000001</v>
+        <v>0.1628</v>
       </c>
       <c r="J66">
-        <v>4.6340000000000003</v>
+        <v>6.6379999999999999</v>
       </c>
       <c r="K66">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12522,12 +12522,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
@@ -12536,33 +12536,33 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>9.5139999999999993</v>
+        <v>9.6110000000000007</v>
       </c>
       <c r="F69">
-        <v>2.794</v>
+        <v>2.7109999999999999</v>
       </c>
       <c r="G69">
-        <v>1.555E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="H69">
-        <v>0.19159999999999999</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="I69">
-        <v>0.1628</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="J69">
-        <v>6.6379999999999999</v>
+        <v>6.6239999999999997</v>
       </c>
       <c r="K69">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
@@ -12574,19 +12574,19 @@
         <v>9.6110000000000007</v>
       </c>
       <c r="F70">
-        <v>2.7109999999999999</v>
+        <v>2.7170000000000001</v>
       </c>
       <c r="G70">
-        <v>1.5440000000000001E-2</v>
+        <v>1.6039999999999999E-2</v>
       </c>
       <c r="H70">
-        <v>0.18590000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="I70">
-        <v>0.15790000000000001</v>
+        <v>0.15590000000000001</v>
       </c>
       <c r="J70">
-        <v>6.6239999999999997</v>
+        <v>6.54</v>
       </c>
       <c r="K70">
         <v>29</v>
@@ -12627,12 +12627,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
@@ -12641,25 +12641,25 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>9.6110000000000007</v>
+        <v>8.7379999999999995</v>
       </c>
       <c r="F72">
-        <v>2.7170000000000001</v>
+        <v>2.6739999999999999</v>
       </c>
       <c r="G72">
-        <v>1.6039999999999999E-2</v>
+        <v>5.7329999999999999E-2</v>
       </c>
       <c r="H72">
-        <v>0.184</v>
+        <v>0.18640000000000001</v>
       </c>
       <c r="I72">
-        <v>0.15590000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="J72">
-        <v>6.54</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="K72">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12697,74 +12697,74 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>8.7379999999999995</v>
+        <v>8.657</v>
       </c>
       <c r="F74">
-        <v>2.6739999999999999</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="G74">
-        <v>5.7329999999999999E-2</v>
+        <v>6.5759999999999999E-2</v>
       </c>
       <c r="H74">
-        <v>0.18640000000000001</v>
+        <v>0.18529999999999999</v>
       </c>
       <c r="I74">
-        <v>0.14119999999999999</v>
+        <v>0.13739999999999999</v>
       </c>
       <c r="J74">
-        <v>4.1230000000000002</v>
+        <v>3.8679999999999999</v>
       </c>
       <c r="K74">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>8.657</v>
+        <v>15.357200000000001</v>
       </c>
       <c r="F75">
-        <v>2.9729999999999999</v>
+        <v>-0.7712</v>
       </c>
       <c r="G75">
-        <v>6.5759999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="H75">
-        <v>0.18529999999999999</v>
+        <v>0.1358</v>
       </c>
       <c r="I75">
-        <v>0.13739999999999999</v>
+        <v>0.1111</v>
       </c>
       <c r="J75">
-        <v>3.8679999999999999</v>
+        <v>5.5010000000000003</v>
       </c>
       <c r="K75">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12837,7 +12837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -13537,74 +13537,74 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>9.4819999999999993</v>
+        <v>13.866199999999999</v>
       </c>
       <c r="F98">
-        <v>2.081</v>
+        <v>-0.55179999999999996</v>
       </c>
       <c r="G98">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4879999999999998E-2</v>
       </c>
       <c r="H98">
-        <v>9.9000000000000005E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="I98">
-        <v>6.5629999999999994E-2</v>
+        <v>7.5630000000000003E-2</v>
       </c>
       <c r="J98">
-        <v>2.9670000000000001</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="K98">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
         <v>55</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>15.357200000000001</v>
+        <v>-0.81950000000000001</v>
       </c>
       <c r="F99">
-        <v>-0.7712</v>
+        <v>2.7115999999999998</v>
       </c>
       <c r="G99">
-        <v>2.4799999999999999E-2</v>
+        <v>5.2560000000000003E-2</v>
       </c>
       <c r="H99">
-        <v>0.1358</v>
+        <v>9.7820000000000004E-2</v>
       </c>
       <c r="I99">
-        <v>0.1111</v>
+        <v>7.3429999999999995E-2</v>
       </c>
       <c r="J99">
-        <v>5.5010000000000003</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="K99">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -13887,47 +13887,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C108" t="s">
         <v>55</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>13.866199999999999</v>
+        <v>4.0232999999999999</v>
       </c>
       <c r="F108">
-        <v>-0.55179999999999996</v>
+        <v>0.32650000000000001</v>
       </c>
       <c r="G108">
-        <v>5.4879999999999998E-2</v>
+        <v>5.3269999999999998E-2</v>
       </c>
       <c r="H108">
-        <v>0.1013</v>
+        <v>9.7259999999999999E-2</v>
       </c>
       <c r="I108">
-        <v>7.5630000000000003E-2</v>
+        <v>7.2859999999999994E-2</v>
       </c>
       <c r="J108">
-        <v>3.9449999999999998</v>
+        <v>3.9860000000000002</v>
       </c>
       <c r="K108">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
         <v>55</v>
@@ -13936,68 +13936,68 @@
         <v>2</v>
       </c>
       <c r="E109">
-        <v>-0.81950000000000001</v>
+        <v>-0.38350000000000001</v>
       </c>
       <c r="F109">
-        <v>2.7115999999999998</v>
+        <v>0.21790000000000001</v>
       </c>
       <c r="G109">
-        <v>5.2560000000000003E-2</v>
+        <v>5.7689999999999998E-2</v>
       </c>
       <c r="H109">
-        <v>9.7820000000000004E-2</v>
+        <v>9.3969999999999998E-2</v>
       </c>
       <c r="I109">
-        <v>7.3429999999999995E-2</v>
+        <v>6.948E-2</v>
       </c>
       <c r="J109">
-        <v>4.0119999999999996</v>
+        <v>3.8370000000000002</v>
       </c>
       <c r="K109">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>4.0232999999999999</v>
+        <v>9.4819999999999993</v>
       </c>
       <c r="F110">
-        <v>0.32650000000000001</v>
+        <v>2.081</v>
       </c>
       <c r="G110">
-        <v>5.3269999999999998E-2</v>
+        <v>9.6430000000000002E-2</v>
       </c>
       <c r="H110">
-        <v>9.7259999999999999E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I110">
-        <v>7.2859999999999994E-2</v>
+        <v>6.5629999999999994E-2</v>
       </c>
       <c r="J110">
-        <v>3.9860000000000002</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="K110">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
         <v>55</v>
@@ -14006,60 +14006,60 @@
         <v>2</v>
       </c>
       <c r="E111">
-        <v>-0.38350000000000001</v>
+        <v>5.2873999999999999</v>
       </c>
       <c r="F111">
-        <v>0.21790000000000001</v>
+        <v>0.34339999999999998</v>
       </c>
       <c r="G111">
-        <v>5.7689999999999998E-2</v>
+        <v>6.7089999999999997E-2</v>
       </c>
       <c r="H111">
-        <v>9.3969999999999998E-2</v>
+        <v>8.7749999999999995E-2</v>
       </c>
       <c r="I111">
-        <v>6.948E-2</v>
+        <v>6.3100000000000003E-2</v>
       </c>
       <c r="J111">
-        <v>3.8370000000000002</v>
+        <v>3.5590000000000002</v>
       </c>
       <c r="K111">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112">
-        <v>5.2873999999999999</v>
+        <v>-35.856999999999999</v>
       </c>
       <c r="F112">
-        <v>0.34339999999999998</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="G112">
-        <v>6.7089999999999997E-2</v>
+        <v>7.2859999999999994E-2</v>
       </c>
       <c r="H112">
-        <v>8.7749999999999995E-2</v>
+        <v>8.9020000000000002E-2</v>
       </c>
       <c r="I112">
-        <v>6.3100000000000003E-2</v>
+        <v>6.2990000000000004E-2</v>
       </c>
       <c r="J112">
-        <v>3.5590000000000002</v>
+        <v>3.42</v>
       </c>
       <c r="K112">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -14486,10 +14486,10 @@
   <autoFilter ref="A1:K124" xr:uid="{49AE83B7-BE4F-43DA-873C-DBE3365449F6}">
     <filterColumn colId="0">
       <filters>
-        <filter val="B90_MatureFemaleCPUE"/>
+        <filter val="B90_CPUE"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K91">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K112">
       <sortCondition descending="1" ref="I2:I124"/>
     </sortState>
   </autoFilter>
@@ -20873,10 +20873,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5650F765-A6D9-48FC-BD7C-177AA913FACD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:I163"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="A6:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20917,7 +20918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -20940,7 +20941,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -20963,7 +20964,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -20986,7 +20987,7 @@
         <v>0.4869</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -21032,7 +21033,7 @@
         <v>0.48180000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>0.45910000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -21078,7 +21079,7 @@
         <v>0.45710000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -21101,7 +21102,7 @@
         <v>0.44850000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -21124,7 +21125,7 @@
         <v>0.43719999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -21147,7 +21148,7 @@
         <v>0.43169999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -21170,7 +21171,7 @@
         <v>0.42330000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -21193,7 +21194,7 @@
         <v>0.41420000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -21216,7 +21217,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -21239,7 +21240,7 @@
         <v>0.40910000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -21262,7 +21263,7 @@
         <v>0.40039999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -21285,7 +21286,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -21308,7 +21309,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -21331,7 +21332,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -21354,7 +21355,7 @@
         <v>0.3876</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -21377,7 +21378,7 @@
         <v>0.38690000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -21423,7 +21424,7 @@
         <v>0.37969999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -21446,7 +21447,7 @@
         <v>0.37859999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -21469,7 +21470,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -21515,7 +21516,7 @@
         <v>0.35720000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -21538,7 +21539,7 @@
         <v>0.35720000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -21561,7 +21562,7 @@
         <v>0.35670000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -21584,7 +21585,7 @@
         <v>0.3523</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -21607,7 +21608,7 @@
         <v>0.34739999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -21630,7 +21631,7 @@
         <v>0.34720000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -21653,7 +21654,7 @@
         <v>0.33779999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -21676,7 +21677,7 @@
         <v>0.33689999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -21699,7 +21700,7 @@
         <v>0.3362</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -21745,7 +21746,7 @@
         <v>0.33069999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -21768,7 +21769,7 @@
         <v>0.32869999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -21791,7 +21792,7 @@
         <v>0.32790000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -21814,7 +21815,7 @@
         <v>0.32769999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -21837,7 +21838,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -21860,7 +21861,7 @@
         <v>0.31950000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -21883,7 +21884,7 @@
         <v>0.31209999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -21906,7 +21907,7 @@
         <v>0.31019999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -21929,7 +21930,7 @@
         <v>0.30959999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -21952,7 +21953,7 @@
         <v>0.30859999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -21975,7 +21976,7 @@
         <v>0.3044</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -21998,7 +21999,7 @@
         <v>0.30349999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -22044,7 +22045,7 @@
         <v>0.30109999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -22067,7 +22068,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -22090,7 +22091,7 @@
         <v>0.30009999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -22136,7 +22137,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -22159,7 +22160,7 @@
         <v>0.29170000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -22182,7 +22183,7 @@
         <v>0.29060000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -22205,7 +22206,7 @@
         <v>0.28820000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -22228,7 +22229,7 @@
         <v>0.28670000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -22251,7 +22252,7 @@
         <v>0.28649999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -22297,7 +22298,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -22343,7 +22344,7 @@
         <v>0.28370000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -22366,7 +22367,7 @@
         <v>0.28239999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -22389,7 +22390,7 @@
         <v>0.28120000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -22435,7 +22436,7 @@
         <v>0.28050000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -22481,7 +22482,7 @@
         <v>0.27639999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -22504,7 +22505,7 @@
         <v>0.27410000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -22550,7 +22551,7 @@
         <v>0.27379999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -22573,7 +22574,7 @@
         <v>0.27289999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -22596,7 +22597,7 @@
         <v>0.26579999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -22619,7 +22620,7 @@
         <v>0.2636</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -22642,7 +22643,7 @@
         <v>0.26169999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -22665,7 +22666,7 @@
         <v>0.2576</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -22711,7 +22712,7 @@
         <v>0.25559999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -22757,7 +22758,7 @@
         <v>0.25440000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -22780,7 +22781,7 @@
         <v>0.25390000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -22803,7 +22804,7 @@
         <v>0.25080000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -22826,7 +22827,7 @@
         <v>0.24809999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -22849,7 +22850,7 @@
         <v>0.24640000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -22895,7 +22896,7 @@
         <v>0.24390000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -22941,7 +22942,7 @@
         <v>0.24229999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -22964,7 +22965,7 @@
         <v>0.2412</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -22987,7 +22988,7 @@
         <v>0.23830000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -23033,7 +23034,7 @@
         <v>0.23749999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -23056,7 +23057,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -23079,7 +23080,7 @@
         <v>0.23430000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -23102,7 +23103,7 @@
         <v>0.2339</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -23125,7 +23126,7 @@
         <v>0.2334</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -23148,7 +23149,7 @@
         <v>0.23150000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -23171,7 +23172,7 @@
         <v>0.23089999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -23194,7 +23195,7 @@
         <v>0.23039999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -23217,7 +23218,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -23240,7 +23241,7 @@
         <v>0.2298</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -23263,7 +23264,7 @@
         <v>0.2283</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -23309,7 +23310,7 @@
         <v>0.22789999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -23332,7 +23333,7 @@
         <v>0.22770000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -23355,7 +23356,7 @@
         <v>0.22670000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -23378,7 +23379,7 @@
         <v>0.2261</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -23401,7 +23402,7 @@
         <v>0.22489999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -23424,7 +23425,7 @@
         <v>0.2243</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -23447,7 +23448,7 @@
         <v>0.22389999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -23470,7 +23471,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -23493,7 +23494,7 @@
         <v>0.2235</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -23539,7 +23540,7 @@
         <v>0.2228</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -23562,7 +23563,7 @@
         <v>0.22209999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -23585,7 +23586,7 @@
         <v>0.2218</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -23608,7 +23609,7 @@
         <v>0.2167</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -23631,7 +23632,7 @@
         <v>0.21659999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>112</v>
       </c>
@@ -23654,7 +23655,7 @@
         <v>0.21340000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -23677,7 +23678,7 @@
         <v>0.21290000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -23700,7 +23701,7 @@
         <v>0.21260000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -23723,7 +23724,7 @@
         <v>0.21179999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>112</v>
       </c>
@@ -23769,7 +23770,7 @@
         <v>0.20549999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -23792,7 +23793,7 @@
         <v>0.2039</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -23815,7 +23816,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -23838,7 +23839,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -23861,7 +23862,7 @@
         <v>0.2024</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -23907,7 +23908,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -23930,7 +23931,7 @@
         <v>0.20119999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -23953,7 +23954,7 @@
         <v>0.19980000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -23976,7 +23977,7 @@
         <v>0.1993</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>121</v>
       </c>
@@ -23999,7 +24000,7 @@
         <v>0.19589999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -24022,7 +24023,7 @@
         <v>0.1928</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -24045,7 +24046,7 @@
         <v>0.18940000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -24068,7 +24069,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -24114,7 +24115,7 @@
         <v>0.18049999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -24137,7 +24138,7 @@
         <v>0.17860000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -24206,7 +24207,7 @@
         <v>0.16020000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -24229,7 +24230,7 @@
         <v>0.15040000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>29</v>
       </c>
@@ -24275,7 +24276,7 @@
         <v>0.14269999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>33</v>
       </c>
@@ -24298,7 +24299,7 @@
         <v>0.1389</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>29</v>
       </c>
@@ -24344,7 +24345,7 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>29</v>
       </c>
@@ -24367,7 +24368,7 @@
         <v>0.1227</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>33</v>
       </c>
@@ -24390,7 +24391,7 @@
         <v>0.1187</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -24413,7 +24414,7 @@
         <v>0.1158</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -24436,7 +24437,7 @@
         <v>0.1132</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -24459,7 +24460,7 @@
         <v>0.10009999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>29</v>
       </c>
@@ -24482,7 +24483,7 @@
         <v>9.6939999999999998E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>29</v>
       </c>
@@ -24505,7 +24506,7 @@
         <v>9.5610000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -24574,7 +24575,7 @@
         <v>7.6590000000000005E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -24597,7 +24598,7 @@
         <v>7.2830000000000006E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>33</v>
       </c>
@@ -24620,7 +24621,7 @@
         <v>6.1420000000000002E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>29</v>
       </c>
@@ -24645,6 +24646,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I163" xr:uid="{CC90FC41-3066-4941-A442-653857C60AC5}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MeanLandings"/>
+        <filter val="MeanLandingsCPUE"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I163">
       <sortCondition descending="1" ref="G2:G163"/>
     </sortState>

--- a/regression_summaries.xlsx
+++ b/regression_summaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sczwa\Desktop\shinycrab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\shinycrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24D3E6-D7FA-423E-A9A5-2972410B4BBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324741A0-D1CD-4971-9CCA-E49D3FE734B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4095" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
+    <workbookView xWindow="-19320" yWindow="270" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="6" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
   </bookViews>
   <sheets>
     <sheet name="E98" sheetId="2" r:id="rId1"/>
@@ -10128,7 +10128,7 @@
   </sheetPr>
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD14"/>
     </sheetView>
@@ -16638,7 +16638,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18637,12 +18637,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="4" max="8" width="15.28515625" customWidth="1"/>
   </cols>
@@ -18673,7 +18674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -18793,7 +18794,7 @@
         <v>0.40489999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -18933,7 +18934,7 @@
         <v>0.31940000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -19053,7 +19054,7 @@
         <v>0.2989</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -19093,7 +19094,7 @@
         <v>0.29820000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -19193,7 +19194,7 @@
         <v>0.27110000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -19253,7 +19254,7 @@
         <v>0.26640000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -19293,7 +19294,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -19333,7 +19334,7 @@
         <v>0.25440000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -19413,7 +19414,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -19493,7 +19494,7 @@
         <v>0.22839999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -19513,7 +19514,7 @@
         <v>0.22839999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -19573,7 +19574,7 @@
         <v>0.22670000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -19613,7 +19614,7 @@
         <v>0.22420000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -19633,7 +19634,7 @@
         <v>0.22420000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -19693,7 +19694,7 @@
         <v>0.21840000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -19753,7 +19754,7 @@
         <v>0.21229999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -19813,7 +19814,7 @@
         <v>0.2046</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -19873,7 +19874,7 @@
         <v>0.19309999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -19933,7 +19934,7 @@
         <v>0.17519999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -19953,7 +19954,7 @@
         <v>0.17480000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -20113,7 +20114,7 @@
         <v>0.15260000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -20173,7 +20174,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -20213,7 +20214,7 @@
         <v>0.12670000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -20253,7 +20254,7 @@
         <v>0.1118</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -20453,7 +20454,7 @@
         <v>9.4990000000000005E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -20513,7 +20514,7 @@
         <v>8.6499999999999994E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -20553,7 +20554,7 @@
         <v>8.5639999999999994E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -20613,7 +20614,7 @@
         <v>8.3680000000000004E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -20693,7 +20694,7 @@
         <v>7.689E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -20713,7 +20714,7 @@
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>34</v>
       </c>
@@ -20833,7 +20834,7 @@
         <v>7.0180000000000006E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -20857,7 +20858,8 @@
   <autoFilter ref="A1:H110" xr:uid="{663E3F2F-6B72-4B60-89F8-B414401CFF8F}">
     <filterColumn colId="0">
       <filters>
-        <filter val="AshleyLandingsCPUE"/>
+        <filter val="MeanLandings"/>
+        <filter val="MeanLandingsCPUE"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H110">
